--- a/Tests/Validation/Wheat/data/FAR TAS W16-01-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR TAS W16-01-2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR TAS W16-01-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR TAS W16-01-2.xlsx
@@ -508,12 +508,12 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn</t>
+          <t>Wheat.Leaf.StemPopulation</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn.se</t>
+          <t>Wheat.Leaf.StemPopulation.se</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR TAS W16-01-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR TAS W16-01-2.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +462,7 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
@@ -566,7 +567,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -602,7 +603,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -638,7 +639,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -674,7 +675,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -710,7 +711,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -746,7 +747,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -782,7 +783,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>42618</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -818,7 +819,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -854,7 +855,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -890,7 +891,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -928,7 +929,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -964,7 +965,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1000,7 +1001,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1036,7 +1037,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1072,7 +1073,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1112,7 +1113,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1168,7 +1169,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1204,7 +1205,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1240,7 +1241,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1276,7 +1277,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1312,7 +1313,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1348,7 +1349,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1384,7 +1385,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>42618</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1420,7 +1421,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1456,7 +1457,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1492,7 +1493,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1530,7 +1531,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1566,7 +1567,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1602,7 +1603,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1642,7 +1643,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1678,7 +1679,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1718,7 +1719,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1774,7 +1775,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1810,7 +1811,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1846,7 +1847,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1882,7 +1883,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1918,7 +1919,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1954,7 +1955,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1990,7 +1991,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>42618</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2026,7 +2027,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2062,7 +2063,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2098,7 +2099,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2136,7 +2137,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2172,7 +2173,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2208,7 +2209,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2244,7 +2245,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2280,7 +2281,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2320,7 +2321,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2376,7 +2377,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2412,7 +2413,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2448,7 +2449,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2484,7 +2485,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2520,7 +2521,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2556,7 +2557,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2592,7 +2593,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2628,7 +2629,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2664,7 +2665,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2702,7 +2703,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2738,7 +2739,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2774,7 +2775,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2810,7 +2811,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2846,7 +2847,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C63" t="inlineStr">
@@ -2886,7 +2887,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2942,7 +2943,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2978,7 +2979,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3014,7 +3015,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3050,7 +3051,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3086,7 +3087,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3122,7 +3123,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3158,7 +3159,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3194,7 +3195,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3230,7 +3231,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3268,7 +3269,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3304,7 +3305,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3340,7 +3341,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3376,7 +3377,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3412,7 +3413,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -3452,7 +3453,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -3508,7 +3509,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3544,7 +3545,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3580,7 +3581,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3616,7 +3617,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3652,7 +3653,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3688,7 +3689,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3724,7 +3725,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3760,7 +3761,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3796,7 +3797,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3834,7 +3835,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3870,7 +3871,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3906,7 +3907,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3942,7 +3943,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3978,7 +3979,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -4018,7 +4019,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -4074,7 +4075,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4110,7 +4111,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4146,7 +4147,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4182,7 +4183,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4218,7 +4219,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4254,7 +4255,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4290,7 +4291,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4326,7 +4327,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4362,7 +4363,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4400,7 +4401,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4436,7 +4437,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4472,7 +4473,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4508,7 +4509,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4544,7 +4545,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C108" t="inlineStr">
@@ -4584,7 +4585,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C109" t="inlineStr">
@@ -4640,7 +4641,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4676,7 +4677,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4712,7 +4713,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4748,7 +4749,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4784,7 +4785,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4820,7 +4821,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4856,7 +4857,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4892,7 +4893,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4928,7 +4929,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4966,7 +4967,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5002,7 +5003,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5038,7 +5039,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5074,7 +5075,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5110,7 +5111,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C123" t="inlineStr">
@@ -5150,7 +5151,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C124" t="inlineStr">
@@ -5206,7 +5207,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5242,7 +5243,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5278,7 +5279,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5314,7 +5315,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5350,7 +5351,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5386,7 +5387,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5422,7 +5423,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5458,7 +5459,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5494,7 +5495,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5532,7 +5533,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5568,7 +5569,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5604,7 +5605,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5640,7 +5641,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5676,7 +5677,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C138" t="inlineStr">
@@ -5716,7 +5717,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C139" t="inlineStr">
@@ -5772,7 +5773,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5808,7 +5809,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5844,7 +5845,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5880,7 +5881,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5916,7 +5917,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -5952,7 +5953,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5988,7 +5989,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6024,7 +6025,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6060,7 +6061,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6098,7 +6099,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6134,7 +6135,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6170,7 +6171,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6206,7 +6207,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6242,7 +6243,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C153" t="inlineStr">
@@ -6282,7 +6283,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C154" t="inlineStr">
@@ -6338,7 +6339,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6374,7 +6375,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6410,7 +6411,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6446,7 +6447,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6482,7 +6483,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6518,7 +6519,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6554,7 +6555,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6590,7 +6591,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6626,7 +6627,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6664,7 +6665,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6700,7 +6701,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6736,7 +6737,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -6772,7 +6773,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6808,7 +6809,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C168" t="inlineStr">
@@ -6848,7 +6849,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -6904,7 +6905,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6940,7 +6941,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6976,7 +6977,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -7012,7 +7013,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7048,7 +7049,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7084,7 +7085,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7120,7 +7121,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7156,7 +7157,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7192,7 +7193,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7230,7 +7231,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7266,7 +7267,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7302,7 +7303,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7338,7 +7339,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7374,7 +7375,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C183" t="inlineStr">
@@ -7414,7 +7415,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C184" t="inlineStr">
@@ -7470,7 +7471,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7506,7 +7507,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7542,7 +7543,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7578,7 +7579,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7614,7 +7615,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7650,7 +7651,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7686,7 +7687,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7722,7 +7723,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -7758,7 +7759,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7796,7 +7797,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7832,7 +7833,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7868,7 +7869,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7904,7 +7905,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7940,7 +7941,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C198" t="inlineStr">
@@ -7980,7 +7981,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C199" t="inlineStr">
@@ -8036,7 +8037,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8072,7 +8073,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8108,7 +8109,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8144,7 +8145,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8180,7 +8181,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8216,7 +8217,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8252,7 +8253,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8288,7 +8289,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8324,7 +8325,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -8362,7 +8363,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -8398,7 +8399,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8434,7 +8435,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8470,7 +8471,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8506,7 +8507,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C213" t="inlineStr">
@@ -8546,7 +8547,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C214" t="inlineStr">
@@ -8602,7 +8603,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8638,7 +8639,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8674,7 +8675,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8710,7 +8711,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8746,7 +8747,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8782,7 +8783,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8818,7 +8819,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8854,7 +8855,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8890,7 +8891,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8928,7 +8929,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -8964,7 +8965,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -9000,7 +9001,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9036,7 +9037,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9072,7 +9073,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C228" t="inlineStr">
@@ -9112,7 +9113,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C229" t="inlineStr">
@@ -9168,7 +9169,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9204,7 +9205,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9240,7 +9241,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9276,7 +9277,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9312,7 +9313,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9348,7 +9349,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -9384,7 +9385,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -9420,7 +9421,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9456,7 +9457,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9494,7 +9495,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -9530,7 +9531,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -9566,7 +9567,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9602,7 +9603,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9638,7 +9639,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C243" t="inlineStr">
@@ -9678,7 +9679,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C244" t="inlineStr">
@@ -9734,7 +9735,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9770,7 +9771,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B246" s="3" t="n">
+      <c r="B246" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9806,7 +9807,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B247" s="3" t="n">
+      <c r="B247" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -9842,7 +9843,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B248" s="3" t="n">
+      <c r="B248" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -9878,7 +9879,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B249" s="3" t="n">
+      <c r="B249" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9914,7 +9915,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B250" s="3" t="n">
+      <c r="B250" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9950,7 +9951,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B251" s="3" t="n">
+      <c r="B251" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -9986,7 +9987,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B252" s="3" t="n">
+      <c r="B252" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -10022,7 +10023,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B253" s="3" t="n">
+      <c r="B253" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -10060,7 +10061,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B254" s="3" t="n">
+      <c r="B254" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -10096,7 +10097,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B255" s="3" t="n">
+      <c r="B255" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -10132,7 +10133,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B256" s="3" t="n">
+      <c r="B256" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -10168,7 +10169,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B257" s="3" t="n">
+      <c r="B257" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -10204,7 +10205,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B258" s="3" t="n">
+      <c r="B258" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C258" t="inlineStr">
@@ -10244,7 +10245,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B259" s="3" t="n">
+      <c r="B259" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C259" t="inlineStr">
@@ -10300,7 +10301,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B260" s="3" t="n">
+      <c r="B260" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -10336,7 +10337,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B261" s="3" t="n">
+      <c r="B261" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -10372,7 +10373,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B262" s="3" t="n">
+      <c r="B262" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -10408,7 +10409,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B263" s="3" t="n">
+      <c r="B263" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -10444,7 +10445,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B264" s="3" t="n">
+      <c r="B264" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -10480,7 +10481,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B265" s="3" t="n">
+      <c r="B265" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -10516,7 +10517,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B266" s="3" t="n">
+      <c r="B266" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -10552,7 +10553,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B267" s="3" t="n">
+      <c r="B267" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -10588,7 +10589,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B268" s="3" t="n">
+      <c r="B268" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10626,7 +10627,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B269" s="3" t="n">
+      <c r="B269" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10662,7 +10663,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B270" s="3" t="n">
+      <c r="B270" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10698,7 +10699,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B271" s="3" t="n">
+      <c r="B271" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -10734,7 +10735,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B272" s="3" t="n">
+      <c r="B272" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -10770,7 +10771,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B273" s="3" t="n">
+      <c r="B273" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C273" t="inlineStr">
@@ -10810,7 +10811,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B274" s="3" t="n">
+      <c r="B274" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C274" t="inlineStr">
@@ -10866,7 +10867,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B275" s="3" t="n">
+      <c r="B275" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -10902,7 +10903,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B276" s="3" t="n">
+      <c r="B276" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -10938,7 +10939,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B277" s="3" t="n">
+      <c r="B277" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -10974,7 +10975,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B278" s="3" t="n">
+      <c r="B278" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -11010,7 +11011,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B279" s="3" t="n">
+      <c r="B279" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -11046,7 +11047,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B280" s="3" t="n">
+      <c r="B280" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -11082,7 +11083,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B281" s="3" t="n">
+      <c r="B281" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -11118,7 +11119,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B282" s="3" t="n">
+      <c r="B282" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -11154,7 +11155,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B283" s="3" t="n">
+      <c r="B283" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -11192,7 +11193,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B284" s="3" t="n">
+      <c r="B284" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -11228,7 +11229,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B285" s="3" t="n">
+      <c r="B285" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -11264,7 +11265,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B286" s="3" t="n">
+      <c r="B286" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -11300,7 +11301,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B287" s="3" t="n">
+      <c r="B287" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -11336,7 +11337,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B288" s="3" t="n">
+      <c r="B288" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C288" t="inlineStr">
@@ -11376,7 +11377,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B289" s="3" t="n">
+      <c r="B289" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C289" t="inlineStr">
@@ -11432,7 +11433,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B290" s="3" t="n">
+      <c r="B290" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -11468,7 +11469,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B291" s="3" t="n">
+      <c r="B291" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -11504,7 +11505,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B292" s="3" t="n">
+      <c r="B292" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -11540,7 +11541,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B293" s="3" t="n">
+      <c r="B293" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -11576,7 +11577,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B294" s="3" t="n">
+      <c r="B294" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -11612,7 +11613,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B295" s="3" t="n">
+      <c r="B295" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -11648,7 +11649,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B296" s="3" t="n">
+      <c r="B296" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -11684,7 +11685,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B297" s="3" t="n">
+      <c r="B297" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -11720,7 +11721,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B298" s="3" t="n">
+      <c r="B298" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -11756,7 +11757,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B299" s="3" t="n">
+      <c r="B299" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -11792,7 +11793,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B300" s="3" t="n">
+      <c r="B300" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -11830,7 +11831,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B301" s="3" t="n">
+      <c r="B301" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -11866,7 +11867,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B302" s="3" t="n">
+      <c r="B302" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -11902,7 +11903,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B303" s="3" t="n">
+      <c r="B303" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -11942,7 +11943,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B304" s="3" t="n">
+      <c r="B304" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -11978,7 +11979,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B305" s="3" t="n">
+      <c r="B305" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C305" t="inlineStr">
@@ -12018,7 +12019,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B306" s="3" t="n">
+      <c r="B306" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C306" t="inlineStr">
@@ -12058,7 +12059,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B307" s="3" t="n">
+      <c r="B307" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C307" t="inlineStr">
@@ -12118,7 +12119,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B308" s="3" t="n">
+      <c r="B308" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -12154,7 +12155,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B309" s="3" t="n">
+      <c r="B309" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C309" t="inlineStr"/>
@@ -12190,7 +12191,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B310" s="3" t="n">
+      <c r="B310" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -12226,7 +12227,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B311" s="3" t="n">
+      <c r="B311" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -12262,7 +12263,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B312" s="3" t="n">
+      <c r="B312" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -12298,7 +12299,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B313" s="3" t="n">
+      <c r="B313" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -12334,7 +12335,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B314" s="3" t="n">
+      <c r="B314" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C314" t="inlineStr"/>
@@ -12370,7 +12371,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B315" s="3" t="n">
+      <c r="B315" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C315" t="inlineStr"/>
@@ -12406,7 +12407,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B316" s="3" t="n">
+      <c r="B316" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -12442,7 +12443,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B317" s="3" t="n">
+      <c r="B317" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -12478,7 +12479,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B318" s="3" t="n">
+      <c r="B318" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C318" t="inlineStr"/>
@@ -12516,7 +12517,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B319" s="3" t="n">
+      <c r="B319" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C319" t="inlineStr"/>
@@ -12552,7 +12553,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B320" s="3" t="n">
+      <c r="B320" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C320" t="inlineStr"/>
@@ -12588,7 +12589,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B321" s="3" t="n">
+      <c r="B321" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C321" t="inlineStr"/>
@@ -12628,7 +12629,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B322" s="3" t="n">
+      <c r="B322" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C322" t="inlineStr"/>
@@ -12664,7 +12665,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B323" s="3" t="n">
+      <c r="B323" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C323" t="inlineStr">
@@ -12704,7 +12705,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B324" s="3" t="n">
+      <c r="B324" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C324" t="inlineStr">
@@ -12744,7 +12745,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B325" s="3" t="n">
+      <c r="B325" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C325" t="inlineStr">
@@ -12804,7 +12805,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B326" s="3" t="n">
+      <c r="B326" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C326" t="inlineStr"/>
@@ -12840,7 +12841,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B327" s="3" t="n">
+      <c r="B327" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C327" t="inlineStr"/>
@@ -12876,7 +12877,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B328" s="3" t="n">
+      <c r="B328" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C328" t="inlineStr"/>
@@ -12912,7 +12913,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B329" s="3" t="n">
+      <c r="B329" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C329" t="inlineStr"/>
@@ -12948,7 +12949,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B330" s="3" t="n">
+      <c r="B330" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C330" t="inlineStr"/>
@@ -12984,7 +12985,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B331" s="3" t="n">
+      <c r="B331" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C331" t="inlineStr"/>
@@ -13020,7 +13021,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B332" s="3" t="n">
+      <c r="B332" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C332" t="inlineStr"/>
@@ -13056,7 +13057,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B333" s="3" t="n">
+      <c r="B333" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C333" t="inlineStr"/>
@@ -13092,7 +13093,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B334" s="3" t="n">
+      <c r="B334" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C334" t="inlineStr"/>
@@ -13128,7 +13129,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B335" s="3" t="n">
+      <c r="B335" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C335" t="inlineStr"/>
@@ -13164,7 +13165,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B336" s="3" t="n">
+      <c r="B336" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C336" t="inlineStr"/>
@@ -13202,7 +13203,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B337" s="3" t="n">
+      <c r="B337" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C337" t="inlineStr"/>
@@ -13238,7 +13239,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B338" s="3" t="n">
+      <c r="B338" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C338" t="inlineStr"/>
@@ -13274,7 +13275,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B339" s="3" t="n">
+      <c r="B339" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C339" t="inlineStr"/>
@@ -13314,7 +13315,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B340" s="3" t="n">
+      <c r="B340" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C340" t="inlineStr"/>
@@ -13350,7 +13351,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B341" s="3" t="n">
+      <c r="B341" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C341" t="inlineStr">
@@ -13390,7 +13391,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B342" s="3" t="n">
+      <c r="B342" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C342" t="inlineStr">
@@ -13430,7 +13431,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B343" s="3" t="n">
+      <c r="B343" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C343" t="inlineStr">
@@ -13490,7 +13491,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B344" s="3" t="n">
+      <c r="B344" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C344" t="inlineStr"/>
@@ -13526,7 +13527,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B345" s="3" t="n">
+      <c r="B345" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C345" t="inlineStr"/>
@@ -13562,7 +13563,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B346" s="3" t="n">
+      <c r="B346" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C346" t="inlineStr"/>
@@ -13598,7 +13599,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B347" s="3" t="n">
+      <c r="B347" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C347" t="inlineStr"/>
@@ -13634,7 +13635,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B348" s="3" t="n">
+      <c r="B348" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C348" t="inlineStr"/>
@@ -13670,7 +13671,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B349" s="3" t="n">
+      <c r="B349" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C349" t="inlineStr"/>
@@ -13706,7 +13707,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B350" s="3" t="n">
+      <c r="B350" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C350" t="inlineStr"/>
@@ -13742,7 +13743,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B351" s="3" t="n">
+      <c r="B351" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C351" t="inlineStr"/>
@@ -13778,7 +13779,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B352" s="3" t="n">
+      <c r="B352" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C352" t="inlineStr"/>
@@ -13814,7 +13815,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B353" s="3" t="n">
+      <c r="B353" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C353" t="inlineStr"/>
@@ -13850,7 +13851,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B354" s="3" t="n">
+      <c r="B354" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C354" t="inlineStr"/>
@@ -13888,7 +13889,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B355" s="3" t="n">
+      <c r="B355" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C355" t="inlineStr"/>
@@ -13924,7 +13925,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B356" s="3" t="n">
+      <c r="B356" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C356" t="inlineStr"/>
@@ -13960,7 +13961,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B357" s="3" t="n">
+      <c r="B357" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C357" t="inlineStr"/>
@@ -13996,7 +13997,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B358" s="3" t="n">
+      <c r="B358" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C358" t="inlineStr"/>
@@ -14032,7 +14033,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B359" s="3" t="n">
+      <c r="B359" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C359" t="inlineStr">
@@ -14072,7 +14073,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B360" s="3" t="n">
+      <c r="B360" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C360" t="inlineStr">
@@ -14112,7 +14113,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B361" s="3" t="n">
+      <c r="B361" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C361" t="inlineStr">
@@ -14172,7 +14173,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B362" s="3" t="n">
+      <c r="B362" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C362" t="inlineStr"/>
@@ -14208,7 +14209,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B363" s="3" t="n">
+      <c r="B363" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C363" t="inlineStr"/>
@@ -14244,7 +14245,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B364" s="3" t="n">
+      <c r="B364" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C364" t="inlineStr"/>
@@ -14280,7 +14281,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B365" s="3" t="n">
+      <c r="B365" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C365" t="inlineStr"/>
@@ -14316,7 +14317,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B366" s="3" t="n">
+      <c r="B366" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C366" t="inlineStr"/>
@@ -14352,7 +14353,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B367" s="3" t="n">
+      <c r="B367" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C367" t="inlineStr"/>
@@ -14388,7 +14389,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B368" s="3" t="n">
+      <c r="B368" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C368" t="inlineStr"/>
@@ -14424,7 +14425,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B369" s="3" t="n">
+      <c r="B369" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C369" t="inlineStr"/>
@@ -14460,7 +14461,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B370" s="3" t="n">
+      <c r="B370" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C370" t="inlineStr"/>
@@ -14496,7 +14497,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B371" s="3" t="n">
+      <c r="B371" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C371" t="inlineStr"/>
@@ -14532,7 +14533,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B372" s="3" t="n">
+      <c r="B372" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C372" t="inlineStr"/>
@@ -14570,7 +14571,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B373" s="3" t="n">
+      <c r="B373" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C373" t="inlineStr"/>
@@ -14606,7 +14607,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B374" s="3" t="n">
+      <c r="B374" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C374" t="inlineStr"/>
@@ -14642,7 +14643,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B375" s="3" t="n">
+      <c r="B375" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C375" t="inlineStr"/>
@@ -14678,7 +14679,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B376" s="3" t="n">
+      <c r="B376" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C376" t="inlineStr"/>
@@ -14714,7 +14715,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B377" s="3" t="n">
+      <c r="B377" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C377" t="inlineStr">
@@ -14754,7 +14755,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B378" s="3" t="n">
+      <c r="B378" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C378" t="inlineStr">
@@ -14794,7 +14795,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B379" s="3" t="n">
+      <c r="B379" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C379" t="inlineStr">
@@ -14854,7 +14855,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B380" s="3" t="n">
+      <c r="B380" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C380" t="inlineStr"/>
@@ -14890,7 +14891,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B381" s="3" t="n">
+      <c r="B381" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C381" t="inlineStr"/>
@@ -14926,7 +14927,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B382" s="3" t="n">
+      <c r="B382" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C382" t="inlineStr"/>
@@ -14962,7 +14963,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B383" s="3" t="n">
+      <c r="B383" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C383" t="inlineStr"/>
@@ -14998,7 +14999,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B384" s="3" t="n">
+      <c r="B384" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C384" t="inlineStr"/>
@@ -15034,7 +15035,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B385" s="3" t="n">
+      <c r="B385" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C385" t="inlineStr"/>
@@ -15070,7 +15071,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B386" s="3" t="n">
+      <c r="B386" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C386" t="inlineStr"/>
@@ -15106,7 +15107,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B387" s="3" t="n">
+      <c r="B387" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C387" t="inlineStr"/>
@@ -15142,7 +15143,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B388" s="3" t="n">
+      <c r="B388" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C388" t="inlineStr"/>
@@ -15178,7 +15179,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B389" s="3" t="n">
+      <c r="B389" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C389" t="inlineStr"/>
@@ -15214,7 +15215,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B390" s="3" t="n">
+      <c r="B390" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C390" t="inlineStr"/>
@@ -15252,7 +15253,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B391" s="3" t="n">
+      <c r="B391" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C391" t="inlineStr"/>
@@ -15288,7 +15289,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B392" s="3" t="n">
+      <c r="B392" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C392" t="inlineStr"/>
@@ -15324,7 +15325,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B393" s="3" t="n">
+      <c r="B393" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C393" t="inlineStr"/>
@@ -15360,7 +15361,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B394" s="3" t="n">
+      <c r="B394" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C394" t="inlineStr"/>
@@ -15396,7 +15397,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B395" s="3" t="n">
+      <c r="B395" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C395" t="inlineStr">
@@ -15436,7 +15437,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B396" s="3" t="n">
+      <c r="B396" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C396" t="inlineStr">
@@ -15476,7 +15477,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B397" s="3" t="n">
+      <c r="B397" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C397" t="inlineStr">
@@ -15536,7 +15537,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B398" s="3" t="n">
+      <c r="B398" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C398" t="inlineStr"/>
@@ -15572,7 +15573,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B399" s="3" t="n">
+      <c r="B399" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C399" t="inlineStr"/>
@@ -15608,7 +15609,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B400" s="3" t="n">
+      <c r="B400" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C400" t="inlineStr"/>
@@ -15644,7 +15645,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B401" s="3" t="n">
+      <c r="B401" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C401" t="inlineStr"/>
@@ -15680,7 +15681,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B402" s="3" t="n">
+      <c r="B402" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C402" t="inlineStr"/>
@@ -15716,7 +15717,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B403" s="3" t="n">
+      <c r="B403" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C403" t="inlineStr"/>
@@ -15752,7 +15753,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B404" s="3" t="n">
+      <c r="B404" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C404" t="inlineStr"/>
@@ -15788,7 +15789,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B405" s="3" t="n">
+      <c r="B405" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C405" t="inlineStr"/>
@@ -15824,7 +15825,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B406" s="3" t="n">
+      <c r="B406" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C406" t="inlineStr"/>
@@ -15860,7 +15861,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B407" s="3" t="n">
+      <c r="B407" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C407" t="inlineStr"/>
@@ -15896,7 +15897,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B408" s="3" t="n">
+      <c r="B408" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C408" t="inlineStr"/>
@@ -15934,7 +15935,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B409" s="3" t="n">
+      <c r="B409" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C409" t="inlineStr"/>
@@ -15970,7 +15971,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B410" s="3" t="n">
+      <c r="B410" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C410" t="inlineStr"/>
@@ -16006,7 +16007,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B411" s="3" t="n">
+      <c r="B411" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C411" t="inlineStr"/>
@@ -16042,7 +16043,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B412" s="3" t="n">
+      <c r="B412" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C412" t="inlineStr"/>
@@ -16078,7 +16079,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B413" s="3" t="n">
+      <c r="B413" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C413" t="inlineStr">
@@ -16118,7 +16119,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B414" s="3" t="n">
+      <c r="B414" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C414" t="inlineStr">
@@ -16158,7 +16159,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B415" s="3" t="n">
+      <c r="B415" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C415" t="inlineStr">
@@ -16218,7 +16219,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B416" s="3" t="n">
+      <c r="B416" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C416" t="inlineStr"/>
@@ -16254,7 +16255,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B417" s="3" t="n">
+      <c r="B417" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C417" t="inlineStr"/>
@@ -16290,7 +16291,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B418" s="3" t="n">
+      <c r="B418" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C418" t="inlineStr"/>
@@ -16326,7 +16327,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B419" s="3" t="n">
+      <c r="B419" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C419" t="inlineStr"/>
@@ -16362,7 +16363,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B420" s="3" t="n">
+      <c r="B420" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C420" t="inlineStr"/>
@@ -16398,7 +16399,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B421" s="3" t="n">
+      <c r="B421" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C421" t="inlineStr"/>
@@ -16434,7 +16435,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B422" s="3" t="n">
+      <c r="B422" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C422" t="inlineStr"/>
@@ -16470,7 +16471,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B423" s="3" t="n">
+      <c r="B423" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C423" t="inlineStr"/>
@@ -16506,7 +16507,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B424" s="3" t="n">
+      <c r="B424" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C424" t="inlineStr"/>
@@ -16542,7 +16543,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B425" s="3" t="n">
+      <c r="B425" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C425" t="inlineStr"/>
@@ -16578,7 +16579,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B426" s="3" t="n">
+      <c r="B426" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C426" t="inlineStr"/>
@@ -16616,7 +16617,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B427" s="3" t="n">
+      <c r="B427" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C427" t="inlineStr"/>
@@ -16652,7 +16653,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B428" s="3" t="n">
+      <c r="B428" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C428" t="inlineStr"/>
@@ -16688,7 +16689,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B429" s="3" t="n">
+      <c r="B429" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C429" t="inlineStr"/>
@@ -16724,7 +16725,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B430" s="3" t="n">
+      <c r="B430" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C430" t="inlineStr"/>
@@ -16760,7 +16761,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B431" s="3" t="n">
+      <c r="B431" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C431" t="inlineStr">
@@ -16800,7 +16801,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B432" s="3" t="n">
+      <c r="B432" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C432" t="inlineStr">
@@ -16840,7 +16841,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B433" s="3" t="n">
+      <c r="B433" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C433" t="inlineStr">
@@ -16900,7 +16901,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B434" s="3" t="n">
+      <c r="B434" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C434" t="inlineStr"/>
@@ -16936,7 +16937,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B435" s="3" t="n">
+      <c r="B435" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C435" t="inlineStr"/>
@@ -16972,7 +16973,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B436" s="3" t="n">
+      <c r="B436" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C436" t="inlineStr"/>
@@ -17008,7 +17009,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B437" s="3" t="n">
+      <c r="B437" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C437" t="inlineStr"/>
@@ -17044,7 +17045,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B438" s="3" t="n">
+      <c r="B438" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C438" t="inlineStr"/>
@@ -17080,7 +17081,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B439" s="3" t="n">
+      <c r="B439" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C439" t="inlineStr"/>
@@ -17116,7 +17117,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B440" s="3" t="n">
+      <c r="B440" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C440" t="inlineStr"/>
@@ -17152,7 +17153,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B441" s="3" t="n">
+      <c r="B441" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C441" t="inlineStr"/>
@@ -17188,7 +17189,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B442" s="3" t="n">
+      <c r="B442" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C442" t="inlineStr"/>
@@ -17224,7 +17225,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B443" s="3" t="n">
+      <c r="B443" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C443" t="inlineStr"/>
@@ -17260,7 +17261,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B444" s="3" t="n">
+      <c r="B444" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C444" t="inlineStr"/>
@@ -17298,7 +17299,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B445" s="3" t="n">
+      <c r="B445" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C445" t="inlineStr"/>
@@ -17334,7 +17335,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B446" s="3" t="n">
+      <c r="B446" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C446" t="inlineStr"/>
@@ -17370,7 +17371,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B447" s="3" t="n">
+      <c r="B447" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C447" t="inlineStr"/>
@@ -17406,7 +17407,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B448" s="3" t="n">
+      <c r="B448" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C448" t="inlineStr"/>
@@ -17442,7 +17443,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B449" s="3" t="n">
+      <c r="B449" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C449" t="inlineStr">
@@ -17482,7 +17483,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B450" s="3" t="n">
+      <c r="B450" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C450" t="inlineStr">
@@ -17542,7 +17543,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B451" s="3" t="n">
+      <c r="B451" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C451" t="inlineStr"/>
@@ -17578,7 +17579,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B452" s="3" t="n">
+      <c r="B452" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C452" t="inlineStr"/>
@@ -17614,7 +17615,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B453" s="3" t="n">
+      <c r="B453" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C453" t="inlineStr"/>
@@ -17650,7 +17651,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B454" s="3" t="n">
+      <c r="B454" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C454" t="inlineStr"/>
@@ -17686,7 +17687,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B455" s="3" t="n">
+      <c r="B455" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C455" t="inlineStr"/>
@@ -17722,7 +17723,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B456" s="3" t="n">
+      <c r="B456" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C456" t="inlineStr"/>
@@ -17758,7 +17759,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B457" s="3" t="n">
+      <c r="B457" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C457" t="inlineStr"/>
@@ -17794,7 +17795,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B458" s="3" t="n">
+      <c r="B458" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C458" t="inlineStr"/>
@@ -17830,7 +17831,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B459" s="3" t="n">
+      <c r="B459" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C459" t="inlineStr"/>
@@ -17866,7 +17867,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B460" s="3" t="n">
+      <c r="B460" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C460" t="inlineStr"/>
@@ -17902,7 +17903,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B461" s="3" t="n">
+      <c r="B461" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C461" t="inlineStr"/>
@@ -17940,7 +17941,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B462" s="3" t="n">
+      <c r="B462" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C462" t="inlineStr"/>
@@ -17976,7 +17977,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B463" s="3" t="n">
+      <c r="B463" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C463" t="inlineStr"/>
@@ -18012,7 +18013,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B464" s="3" t="n">
+      <c r="B464" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C464" t="inlineStr"/>
@@ -18048,7 +18049,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B465" s="3" t="n">
+      <c r="B465" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C465" t="inlineStr"/>
@@ -18084,7 +18085,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B466" s="3" t="n">
+      <c r="B466" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C466" t="inlineStr">
@@ -18124,7 +18125,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B467" s="3" t="n">
+      <c r="B467" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C467" t="inlineStr">
@@ -18184,7 +18185,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B468" s="3" t="n">
+      <c r="B468" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C468" t="inlineStr"/>
@@ -18220,7 +18221,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B469" s="3" t="n">
+      <c r="B469" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C469" t="inlineStr"/>
@@ -18256,7 +18257,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B470" s="3" t="n">
+      <c r="B470" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C470" t="inlineStr"/>
@@ -18292,7 +18293,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B471" s="3" t="n">
+      <c r="B471" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C471" t="inlineStr"/>
@@ -18328,7 +18329,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B472" s="3" t="n">
+      <c r="B472" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C472" t="inlineStr"/>
@@ -18364,7 +18365,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B473" s="3" t="n">
+      <c r="B473" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C473" t="inlineStr"/>
@@ -18400,7 +18401,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B474" s="3" t="n">
+      <c r="B474" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C474" t="inlineStr"/>
@@ -18436,7 +18437,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B475" s="3" t="n">
+      <c r="B475" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C475" t="inlineStr"/>
@@ -18472,7 +18473,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B476" s="3" t="n">
+      <c r="B476" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C476" t="inlineStr"/>
@@ -18508,7 +18509,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B477" s="3" t="n">
+      <c r="B477" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C477" t="inlineStr"/>
@@ -18544,7 +18545,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B478" s="3" t="n">
+      <c r="B478" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C478" t="inlineStr"/>
@@ -18582,7 +18583,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B479" s="3" t="n">
+      <c r="B479" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C479" t="inlineStr"/>
@@ -18618,7 +18619,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B480" s="3" t="n">
+      <c r="B480" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C480" t="inlineStr"/>
@@ -18654,7 +18655,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B481" s="3" t="n">
+      <c r="B481" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C481" t="inlineStr"/>
@@ -18690,7 +18691,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B482" s="3" t="n">
+      <c r="B482" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C482" t="inlineStr"/>
@@ -18726,7 +18727,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B483" s="3" t="n">
+      <c r="B483" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C483" t="inlineStr">
@@ -18766,7 +18767,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B484" s="3" t="n">
+      <c r="B484" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C484" t="inlineStr">
@@ -18826,7 +18827,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B485" s="3" t="n">
+      <c r="B485" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C485" t="inlineStr"/>
@@ -18862,7 +18863,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B486" s="3" t="n">
+      <c r="B486" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C486" t="inlineStr"/>
@@ -18898,7 +18899,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B487" s="3" t="n">
+      <c r="B487" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C487" t="inlineStr"/>
@@ -18934,7 +18935,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B488" s="3" t="n">
+      <c r="B488" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C488" t="inlineStr"/>
@@ -18970,7 +18971,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B489" s="3" t="n">
+      <c r="B489" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C489" t="inlineStr"/>
@@ -19006,7 +19007,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B490" s="3" t="n">
+      <c r="B490" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C490" t="inlineStr"/>
@@ -19042,7 +19043,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B491" s="3" t="n">
+      <c r="B491" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C491" t="inlineStr"/>
@@ -19078,7 +19079,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B492" s="3" t="n">
+      <c r="B492" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C492" t="inlineStr"/>
@@ -19114,7 +19115,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B493" s="3" t="n">
+      <c r="B493" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C493" t="inlineStr"/>
@@ -19150,7 +19151,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B494" s="3" t="n">
+      <c r="B494" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C494" t="inlineStr"/>
@@ -19186,7 +19187,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B495" s="3" t="n">
+      <c r="B495" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C495" t="inlineStr"/>
@@ -19224,7 +19225,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B496" s="3" t="n">
+      <c r="B496" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C496" t="inlineStr"/>
@@ -19260,7 +19261,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B497" s="3" t="n">
+      <c r="B497" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C497" t="inlineStr"/>
@@ -19296,7 +19297,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B498" s="3" t="n">
+      <c r="B498" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C498" t="inlineStr"/>
@@ -19332,7 +19333,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B499" s="3" t="n">
+      <c r="B499" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C499" t="inlineStr"/>
@@ -19368,7 +19369,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B500" s="3" t="n">
+      <c r="B500" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C500" t="inlineStr">
@@ -19408,7 +19409,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B501" s="3" t="n">
+      <c r="B501" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C501" t="inlineStr">
@@ -19468,7 +19469,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B502" s="3" t="n">
+      <c r="B502" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C502" t="inlineStr"/>
@@ -19504,7 +19505,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B503" s="3" t="n">
+      <c r="B503" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C503" t="inlineStr"/>
@@ -19540,7 +19541,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B504" s="3" t="n">
+      <c r="B504" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C504" t="inlineStr"/>
@@ -19576,7 +19577,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B505" s="3" t="n">
+      <c r="B505" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C505" t="inlineStr"/>
@@ -19612,7 +19613,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B506" s="3" t="n">
+      <c r="B506" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C506" t="inlineStr"/>
@@ -19648,7 +19649,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B507" s="3" t="n">
+      <c r="B507" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C507" t="inlineStr"/>
@@ -19684,7 +19685,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B508" s="3" t="n">
+      <c r="B508" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C508" t="inlineStr"/>
@@ -19720,7 +19721,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B509" s="3" t="n">
+      <c r="B509" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C509" t="inlineStr"/>
@@ -19756,7 +19757,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B510" s="3" t="n">
+      <c r="B510" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C510" t="inlineStr"/>
@@ -19792,7 +19793,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B511" s="3" t="n">
+      <c r="B511" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C511" t="inlineStr"/>
@@ -19828,7 +19829,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B512" s="3" t="n">
+      <c r="B512" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C512" t="inlineStr"/>
@@ -19866,7 +19867,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B513" s="3" t="n">
+      <c r="B513" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C513" t="inlineStr"/>
@@ -19902,7 +19903,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B514" s="3" t="n">
+      <c r="B514" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C514" t="inlineStr"/>
@@ -19938,7 +19939,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B515" s="3" t="n">
+      <c r="B515" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C515" t="inlineStr"/>
@@ -19974,7 +19975,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B516" s="3" t="n">
+      <c r="B516" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C516" t="inlineStr"/>
@@ -20010,7 +20011,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B517" s="3" t="n">
+      <c r="B517" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C517" t="inlineStr">
@@ -20050,7 +20051,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B518" s="3" t="n">
+      <c r="B518" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C518" t="inlineStr">
@@ -20110,7 +20111,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B519" s="3" t="n">
+      <c r="B519" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C519" t="inlineStr"/>
@@ -20146,7 +20147,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B520" s="3" t="n">
+      <c r="B520" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C520" t="inlineStr"/>
@@ -20182,7 +20183,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B521" s="3" t="n">
+      <c r="B521" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C521" t="inlineStr"/>
@@ -20218,7 +20219,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B522" s="3" t="n">
+      <c r="B522" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C522" t="inlineStr"/>
@@ -20254,7 +20255,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B523" s="3" t="n">
+      <c r="B523" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C523" t="inlineStr"/>
@@ -20290,7 +20291,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B524" s="3" t="n">
+      <c r="B524" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C524" t="inlineStr"/>
@@ -20326,7 +20327,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B525" s="3" t="n">
+      <c r="B525" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C525" t="inlineStr"/>
@@ -20362,7 +20363,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B526" s="3" t="n">
+      <c r="B526" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C526" t="inlineStr"/>
@@ -20398,7 +20399,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B527" s="3" t="n">
+      <c r="B527" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C527" t="inlineStr"/>
@@ -20434,7 +20435,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B528" s="3" t="n">
+      <c r="B528" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C528" t="inlineStr"/>
@@ -20470,7 +20471,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B529" s="3" t="n">
+      <c r="B529" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C529" t="inlineStr"/>
@@ -20508,7 +20509,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B530" s="3" t="n">
+      <c r="B530" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C530" t="inlineStr"/>
@@ -20544,7 +20545,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B531" s="3" t="n">
+      <c r="B531" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C531" t="inlineStr"/>
@@ -20580,7 +20581,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B532" s="3" t="n">
+      <c r="B532" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C532" t="inlineStr"/>
@@ -20616,7 +20617,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B533" s="3" t="n">
+      <c r="B533" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C533" t="inlineStr"/>
@@ -20652,7 +20653,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B534" s="3" t="n">
+      <c r="B534" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C534" t="inlineStr">
@@ -20692,7 +20693,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B535" s="3" t="n">
+      <c r="B535" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C535" t="inlineStr">
@@ -20752,7 +20753,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B536" s="3" t="n">
+      <c r="B536" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C536" t="inlineStr"/>
@@ -20788,7 +20789,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B537" s="3" t="n">
+      <c r="B537" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C537" t="inlineStr"/>
@@ -20824,7 +20825,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B538" s="3" t="n">
+      <c r="B538" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C538" t="inlineStr"/>
@@ -20860,7 +20861,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B539" s="3" t="n">
+      <c r="B539" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C539" t="inlineStr"/>
@@ -20896,7 +20897,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B540" s="3" t="n">
+      <c r="B540" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C540" t="inlineStr"/>
@@ -20932,7 +20933,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B541" s="3" t="n">
+      <c r="B541" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C541" t="inlineStr"/>
@@ -20968,7 +20969,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B542" s="3" t="n">
+      <c r="B542" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C542" t="inlineStr"/>
@@ -21004,7 +21005,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B543" s="3" t="n">
+      <c r="B543" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C543" t="inlineStr"/>
@@ -21040,7 +21041,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B544" s="3" t="n">
+      <c r="B544" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C544" t="inlineStr"/>
@@ -21076,7 +21077,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B545" s="3" t="n">
+      <c r="B545" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C545" t="inlineStr"/>
@@ -21112,7 +21113,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B546" s="3" t="n">
+      <c r="B546" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C546" t="inlineStr"/>
@@ -21150,7 +21151,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B547" s="3" t="n">
+      <c r="B547" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C547" t="inlineStr"/>
@@ -21186,7 +21187,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B548" s="3" t="n">
+      <c r="B548" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C548" t="inlineStr"/>
@@ -21222,7 +21223,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B549" s="3" t="n">
+      <c r="B549" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C549" t="inlineStr"/>
@@ -21258,7 +21259,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B550" s="3" t="n">
+      <c r="B550" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C550" t="inlineStr"/>
@@ -21294,7 +21295,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B551" s="3" t="n">
+      <c r="B551" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C551" t="inlineStr">
@@ -21334,7 +21335,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B552" s="3" t="n">
+      <c r="B552" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C552" t="inlineStr">
@@ -21394,7 +21395,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B553" s="3" t="n">
+      <c r="B553" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C553" t="inlineStr"/>
@@ -21430,7 +21431,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B554" s="3" t="n">
+      <c r="B554" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C554" t="inlineStr"/>
@@ -21466,7 +21467,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B555" s="3" t="n">
+      <c r="B555" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C555" t="inlineStr"/>
@@ -21502,7 +21503,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B556" s="3" t="n">
+      <c r="B556" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C556" t="inlineStr"/>
@@ -21538,7 +21539,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B557" s="3" t="n">
+      <c r="B557" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C557" t="inlineStr"/>
@@ -21574,7 +21575,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B558" s="3" t="n">
+      <c r="B558" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C558" t="inlineStr"/>
@@ -21610,7 +21611,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B559" s="3" t="n">
+      <c r="B559" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C559" t="inlineStr"/>
@@ -21646,7 +21647,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B560" s="3" t="n">
+      <c r="B560" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C560" t="inlineStr"/>
@@ -21682,7 +21683,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B561" s="3" t="n">
+      <c r="B561" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C561" t="inlineStr"/>
@@ -21718,7 +21719,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B562" s="3" t="n">
+      <c r="B562" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C562" t="inlineStr"/>
@@ -21754,7 +21755,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B563" s="3" t="n">
+      <c r="B563" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C563" t="inlineStr"/>
@@ -21792,7 +21793,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B564" s="3" t="n">
+      <c r="B564" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C564" t="inlineStr"/>
@@ -21828,7 +21829,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B565" s="3" t="n">
+      <c r="B565" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C565" t="inlineStr"/>
@@ -21864,7 +21865,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B566" s="3" t="n">
+      <c r="B566" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C566" t="inlineStr"/>
@@ -21900,7 +21901,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B567" s="3" t="n">
+      <c r="B567" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C567" t="inlineStr"/>
@@ -21936,7 +21937,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B568" s="3" t="n">
+      <c r="B568" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C568" t="inlineStr">
@@ -21976,7 +21977,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B569" s="3" t="n">
+      <c r="B569" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C569" t="inlineStr">
@@ -22036,7 +22037,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B570" s="3" t="n">
+      <c r="B570" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C570" t="inlineStr"/>
@@ -22072,7 +22073,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B571" s="3" t="n">
+      <c r="B571" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C571" t="inlineStr"/>
@@ -22108,7 +22109,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B572" s="3" t="n">
+      <c r="B572" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C572" t="inlineStr"/>
@@ -22144,7 +22145,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B573" s="3" t="n">
+      <c r="B573" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C573" t="inlineStr"/>
@@ -22180,7 +22181,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B574" s="3" t="n">
+      <c r="B574" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C574" t="inlineStr"/>
@@ -22216,7 +22217,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B575" s="3" t="n">
+      <c r="B575" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C575" t="inlineStr"/>
@@ -22252,7 +22253,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B576" s="3" t="n">
+      <c r="B576" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C576" t="inlineStr"/>
@@ -22288,7 +22289,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B577" s="3" t="n">
+      <c r="B577" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C577" t="inlineStr"/>
@@ -22324,7 +22325,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B578" s="3" t="n">
+      <c r="B578" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C578" t="inlineStr"/>
@@ -22360,7 +22361,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B579" s="3" t="n">
+      <c r="B579" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C579" t="inlineStr"/>
@@ -22396,7 +22397,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B580" s="3" t="n">
+      <c r="B580" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C580" t="inlineStr"/>
@@ -22434,7 +22435,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B581" s="3" t="n">
+      <c r="B581" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C581" t="inlineStr"/>
@@ -22470,7 +22471,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B582" s="3" t="n">
+      <c r="B582" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C582" t="inlineStr"/>
@@ -22506,7 +22507,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B583" s="3" t="n">
+      <c r="B583" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C583" t="inlineStr"/>
@@ -22542,7 +22543,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B584" s="3" t="n">
+      <c r="B584" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C584" t="inlineStr"/>
@@ -22578,7 +22579,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B585" s="3" t="n">
+      <c r="B585" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C585" t="inlineStr">
@@ -22618,7 +22619,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B586" s="3" t="n">
+      <c r="B586" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C586" t="inlineStr">
@@ -22678,7 +22679,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B587" s="3" t="n">
+      <c r="B587" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C587" t="inlineStr"/>
@@ -22714,7 +22715,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B588" s="3" t="n">
+      <c r="B588" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C588" t="inlineStr"/>
@@ -22750,7 +22751,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B589" s="3" t="n">
+      <c r="B589" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C589" t="inlineStr"/>
@@ -22786,7 +22787,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B590" s="3" t="n">
+      <c r="B590" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C590" t="inlineStr"/>
@@ -22822,7 +22823,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B591" s="3" t="n">
+      <c r="B591" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C591" t="inlineStr"/>
@@ -22858,7 +22859,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B592" s="3" t="n">
+      <c r="B592" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C592" t="inlineStr"/>
@@ -22894,7 +22895,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B593" s="3" t="n">
+      <c r="B593" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C593" t="inlineStr"/>
@@ -22930,7 +22931,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B594" s="3" t="n">
+      <c r="B594" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C594" t="inlineStr"/>
@@ -22966,7 +22967,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B595" s="3" t="n">
+      <c r="B595" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C595" t="inlineStr"/>
@@ -23002,7 +23003,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B596" s="3" t="n">
+      <c r="B596" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C596" t="inlineStr"/>
@@ -23038,7 +23039,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B597" s="3" t="n">
+      <c r="B597" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C597" t="inlineStr"/>
@@ -23076,7 +23077,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B598" s="3" t="n">
+      <c r="B598" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C598" t="inlineStr"/>
@@ -23112,7 +23113,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B599" s="3" t="n">
+      <c r="B599" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C599" t="inlineStr"/>
@@ -23148,7 +23149,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B600" s="3" t="n">
+      <c r="B600" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C600" t="inlineStr"/>
@@ -23184,7 +23185,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B601" s="3" t="n">
+      <c r="B601" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C601" t="inlineStr"/>
@@ -23220,7 +23221,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B602" s="3" t="n">
+      <c r="B602" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C602" t="inlineStr">
@@ -23260,7 +23261,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B603" s="3" t="n">
+      <c r="B603" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C603" t="inlineStr">
@@ -23320,7 +23321,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B604" s="3" t="n">
+      <c r="B604" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C604" t="inlineStr"/>
@@ -23356,7 +23357,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B605" s="3" t="n">
+      <c r="B605" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C605" t="inlineStr"/>
@@ -23392,7 +23393,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B606" s="3" t="n">
+      <c r="B606" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C606" t="inlineStr"/>
@@ -23428,7 +23429,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B607" s="3" t="n">
+      <c r="B607" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C607" t="inlineStr"/>
@@ -23464,7 +23465,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B608" s="3" t="n">
+      <c r="B608" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C608" t="inlineStr"/>
@@ -23500,7 +23501,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B609" s="3" t="n">
+      <c r="B609" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C609" t="inlineStr"/>
@@ -23536,7 +23537,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B610" s="3" t="n">
+      <c r="B610" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C610" t="inlineStr"/>
@@ -23572,7 +23573,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B611" s="3" t="n">
+      <c r="B611" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C611" t="inlineStr"/>
@@ -23608,7 +23609,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B612" s="3" t="n">
+      <c r="B612" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C612" t="inlineStr"/>
@@ -23644,7 +23645,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B613" s="3" t="n">
+      <c r="B613" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C613" t="inlineStr"/>
@@ -23680,7 +23681,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B614" s="3" t="n">
+      <c r="B614" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C614" t="inlineStr"/>
@@ -23718,7 +23719,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B615" s="3" t="n">
+      <c r="B615" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C615" t="inlineStr"/>
@@ -23754,7 +23755,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B616" s="3" t="n">
+      <c r="B616" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C616" t="inlineStr"/>
@@ -23790,7 +23791,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B617" s="3" t="n">
+      <c r="B617" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C617" t="inlineStr"/>
@@ -23826,7 +23827,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B618" s="3" t="n">
+      <c r="B618" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C618" t="inlineStr"/>
@@ -23862,7 +23863,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B619" s="3" t="n">
+      <c r="B619" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C619" t="inlineStr">
@@ -23902,7 +23903,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B620" s="3" t="n">
+      <c r="B620" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C620" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR TAS W16-01-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR TAS W16-01-2.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,7 +461,7 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
@@ -567,7 +566,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -603,7 +602,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -639,7 +638,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -675,7 +674,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -711,7 +710,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -747,7 +746,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -783,7 +782,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>42618</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -819,7 +818,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -855,7 +854,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -891,7 +890,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -929,7 +928,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -965,7 +964,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1001,7 +1000,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1037,7 +1036,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1073,7 +1072,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1113,7 +1112,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1169,7 +1168,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1205,7 +1204,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1241,7 +1240,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1277,7 +1276,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1313,7 +1312,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1349,7 +1348,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1385,7 +1384,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>42618</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1421,7 +1420,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1457,7 +1456,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1493,7 +1492,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1531,7 +1530,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1567,7 +1566,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1603,7 +1602,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1643,7 +1642,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1679,7 +1678,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1719,7 +1718,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1775,7 +1774,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1811,7 +1810,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1847,7 +1846,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1883,7 +1882,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1919,7 +1918,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1955,7 +1954,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1991,7 +1990,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>42618</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2027,7 +2026,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2063,7 +2062,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2099,7 +2098,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2137,7 +2136,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2173,7 +2172,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2209,7 +2208,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2245,7 +2244,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2281,7 +2280,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2321,7 +2320,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2377,7 +2376,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2413,7 +2412,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2449,7 +2448,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2485,7 +2484,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2521,7 +2520,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2557,7 +2556,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2593,7 +2592,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2629,7 +2628,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2665,7 +2664,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2703,7 +2702,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2739,7 +2738,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2775,7 +2774,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2811,7 +2810,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2847,7 +2846,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C63" t="inlineStr">
@@ -2887,7 +2886,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2943,7 +2942,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2979,7 +2978,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3015,7 +3014,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3051,7 +3050,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3087,7 +3086,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3123,7 +3122,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3159,7 +3158,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3195,7 +3194,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3231,7 +3230,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3269,7 +3268,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3305,7 +3304,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3341,7 +3340,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3377,7 +3376,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3413,7 +3412,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -3453,7 +3452,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -3509,7 +3508,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3545,7 +3544,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3581,7 +3580,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3617,7 +3616,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3653,7 +3652,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3689,7 +3688,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3725,7 +3724,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3761,7 +3760,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3797,7 +3796,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3835,7 +3834,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3871,7 +3870,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3907,7 +3906,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3943,7 +3942,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3979,7 +3978,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -4019,7 +4018,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -4075,7 +4074,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4111,7 +4110,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4147,7 +4146,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4183,7 +4182,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4219,7 +4218,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4255,7 +4254,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4291,7 +4290,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4327,7 +4326,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4363,7 +4362,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4401,7 +4400,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4437,7 +4436,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4473,7 +4472,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4509,7 +4508,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4545,7 +4544,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C108" t="inlineStr">
@@ -4585,7 +4584,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C109" t="inlineStr">
@@ -4641,7 +4640,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4677,7 +4676,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4713,7 +4712,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4749,7 +4748,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4785,7 +4784,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4821,7 +4820,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4857,7 +4856,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4893,7 +4892,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4929,7 +4928,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4967,7 +4966,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5003,7 +5002,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5039,7 +5038,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B121" s="4" t="n">
+      <c r="B121" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5075,7 +5074,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B122" s="4" t="n">
+      <c r="B122" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5111,7 +5110,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B123" s="4" t="n">
+      <c r="B123" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C123" t="inlineStr">
@@ -5151,7 +5150,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B124" s="4" t="n">
+      <c r="B124" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C124" t="inlineStr">
@@ -5207,7 +5206,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B125" s="4" t="n">
+      <c r="B125" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5243,7 +5242,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B126" s="4" t="n">
+      <c r="B126" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5279,7 +5278,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B127" s="4" t="n">
+      <c r="B127" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5315,7 +5314,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B128" s="4" t="n">
+      <c r="B128" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5351,7 +5350,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B129" s="4" t="n">
+      <c r="B129" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5387,7 +5386,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B130" s="4" t="n">
+      <c r="B130" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5423,7 +5422,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B131" s="4" t="n">
+      <c r="B131" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5459,7 +5458,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B132" s="4" t="n">
+      <c r="B132" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5495,7 +5494,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B133" s="4" t="n">
+      <c r="B133" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5533,7 +5532,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B134" s="4" t="n">
+      <c r="B134" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5569,7 +5568,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B135" s="4" t="n">
+      <c r="B135" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5605,7 +5604,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B136" s="4" t="n">
+      <c r="B136" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5641,7 +5640,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B137" s="4" t="n">
+      <c r="B137" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5677,7 +5676,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C138" t="inlineStr">
@@ -5717,7 +5716,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B139" s="4" t="n">
+      <c r="B139" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C139" t="inlineStr">
@@ -5773,7 +5772,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B140" s="4" t="n">
+      <c r="B140" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5809,7 +5808,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B141" s="4" t="n">
+      <c r="B141" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5845,7 +5844,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B142" s="4" t="n">
+      <c r="B142" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5881,7 +5880,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B143" s="4" t="n">
+      <c r="B143" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5917,7 +5916,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B144" s="4" t="n">
+      <c r="B144" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -5953,7 +5952,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B145" s="4" t="n">
+      <c r="B145" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5989,7 +5988,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B146" s="4" t="n">
+      <c r="B146" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6025,7 +6024,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B147" s="4" t="n">
+      <c r="B147" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6061,7 +6060,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B148" s="4" t="n">
+      <c r="B148" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6099,7 +6098,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B149" s="4" t="n">
+      <c r="B149" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6135,7 +6134,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B150" s="4" t="n">
+      <c r="B150" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6171,7 +6170,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B151" s="4" t="n">
+      <c r="B151" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6207,7 +6206,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B152" s="4" t="n">
+      <c r="B152" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6243,7 +6242,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B153" s="4" t="n">
+      <c r="B153" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C153" t="inlineStr">
@@ -6283,7 +6282,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B154" s="4" t="n">
+      <c r="B154" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C154" t="inlineStr">
@@ -6339,7 +6338,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B155" s="4" t="n">
+      <c r="B155" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6375,7 +6374,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B156" s="4" t="n">
+      <c r="B156" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6411,7 +6410,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B157" s="4" t="n">
+      <c r="B157" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6447,7 +6446,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B158" s="4" t="n">
+      <c r="B158" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6483,7 +6482,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B159" s="4" t="n">
+      <c r="B159" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6519,7 +6518,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B160" s="4" t="n">
+      <c r="B160" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6555,7 +6554,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B161" s="4" t="n">
+      <c r="B161" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6591,7 +6590,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B162" s="4" t="n">
+      <c r="B162" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6627,7 +6626,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B163" s="4" t="n">
+      <c r="B163" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6665,7 +6664,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B164" s="4" t="n">
+      <c r="B164" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6701,7 +6700,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B165" s="4" t="n">
+      <c r="B165" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6737,7 +6736,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B166" s="4" t="n">
+      <c r="B166" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -6773,7 +6772,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B167" s="4" t="n">
+      <c r="B167" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6809,7 +6808,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B168" s="4" t="n">
+      <c r="B168" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C168" t="inlineStr">
@@ -6849,7 +6848,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B169" s="4" t="n">
+      <c r="B169" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -6905,7 +6904,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B170" s="4" t="n">
+      <c r="B170" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6941,7 +6940,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B171" s="4" t="n">
+      <c r="B171" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6977,7 +6976,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B172" s="4" t="n">
+      <c r="B172" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -7013,7 +7012,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B173" s="4" t="n">
+      <c r="B173" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7049,7 +7048,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B174" s="4" t="n">
+      <c r="B174" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7085,7 +7084,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B175" s="4" t="n">
+      <c r="B175" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7121,7 +7120,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B176" s="4" t="n">
+      <c r="B176" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7157,7 +7156,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B177" s="4" t="n">
+      <c r="B177" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7193,7 +7192,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B178" s="4" t="n">
+      <c r="B178" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7231,7 +7230,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B179" s="4" t="n">
+      <c r="B179" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7267,7 +7266,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B180" s="4" t="n">
+      <c r="B180" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7303,7 +7302,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B181" s="4" t="n">
+      <c r="B181" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7339,7 +7338,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B182" s="4" t="n">
+      <c r="B182" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7375,7 +7374,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B183" s="4" t="n">
+      <c r="B183" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C183" t="inlineStr">
@@ -7415,7 +7414,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B184" s="4" t="n">
+      <c r="B184" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C184" t="inlineStr">
@@ -7471,7 +7470,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B185" s="4" t="n">
+      <c r="B185" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7507,7 +7506,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B186" s="4" t="n">
+      <c r="B186" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7543,7 +7542,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B187" s="4" t="n">
+      <c r="B187" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7579,7 +7578,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B188" s="4" t="n">
+      <c r="B188" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7615,7 +7614,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B189" s="4" t="n">
+      <c r="B189" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7651,7 +7650,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B190" s="4" t="n">
+      <c r="B190" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7687,7 +7686,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B191" s="4" t="n">
+      <c r="B191" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7723,7 +7722,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B192" s="4" t="n">
+      <c r="B192" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -7759,7 +7758,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B193" s="4" t="n">
+      <c r="B193" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7797,7 +7796,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B194" s="4" t="n">
+      <c r="B194" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7833,7 +7832,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B195" s="4" t="n">
+      <c r="B195" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7869,7 +7868,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B196" s="4" t="n">
+      <c r="B196" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7905,7 +7904,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B197" s="4" t="n">
+      <c r="B197" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7941,7 +7940,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B198" s="4" t="n">
+      <c r="B198" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C198" t="inlineStr">
@@ -7981,7 +7980,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B199" s="4" t="n">
+      <c r="B199" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C199" t="inlineStr">
@@ -8037,7 +8036,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B200" s="4" t="n">
+      <c r="B200" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8073,7 +8072,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B201" s="4" t="n">
+      <c r="B201" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8109,7 +8108,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B202" s="4" t="n">
+      <c r="B202" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8145,7 +8144,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B203" s="4" t="n">
+      <c r="B203" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8181,7 +8180,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B204" s="4" t="n">
+      <c r="B204" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8217,7 +8216,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B205" s="4" t="n">
+      <c r="B205" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8253,7 +8252,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B206" s="4" t="n">
+      <c r="B206" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8289,7 +8288,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B207" s="4" t="n">
+      <c r="B207" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8325,7 +8324,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B208" s="4" t="n">
+      <c r="B208" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -8363,7 +8362,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B209" s="4" t="n">
+      <c r="B209" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -8399,7 +8398,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B210" s="4" t="n">
+      <c r="B210" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8435,7 +8434,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B211" s="4" t="n">
+      <c r="B211" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8471,7 +8470,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B212" s="4" t="n">
+      <c r="B212" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8507,7 +8506,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B213" s="4" t="n">
+      <c r="B213" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C213" t="inlineStr">
@@ -8547,7 +8546,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B214" s="4" t="n">
+      <c r="B214" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C214" t="inlineStr">
@@ -8603,7 +8602,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B215" s="4" t="n">
+      <c r="B215" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8639,7 +8638,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B216" s="4" t="n">
+      <c r="B216" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8675,7 +8674,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B217" s="4" t="n">
+      <c r="B217" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8711,7 +8710,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B218" s="4" t="n">
+      <c r="B218" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8747,7 +8746,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B219" s="4" t="n">
+      <c r="B219" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8783,7 +8782,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B220" s="4" t="n">
+      <c r="B220" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8819,7 +8818,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B221" s="4" t="n">
+      <c r="B221" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8855,7 +8854,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B222" s="4" t="n">
+      <c r="B222" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8891,7 +8890,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B223" s="4" t="n">
+      <c r="B223" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8929,7 +8928,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B224" s="4" t="n">
+      <c r="B224" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -8965,7 +8964,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B225" s="4" t="n">
+      <c r="B225" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -9001,7 +9000,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B226" s="4" t="n">
+      <c r="B226" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9037,7 +9036,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B227" s="4" t="n">
+      <c r="B227" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9073,7 +9072,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B228" s="4" t="n">
+      <c r="B228" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C228" t="inlineStr">
@@ -9113,7 +9112,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B229" s="4" t="n">
+      <c r="B229" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C229" t="inlineStr">
@@ -9169,7 +9168,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B230" s="4" t="n">
+      <c r="B230" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9205,7 +9204,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B231" s="4" t="n">
+      <c r="B231" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9241,7 +9240,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B232" s="4" t="n">
+      <c r="B232" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9277,7 +9276,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B233" s="4" t="n">
+      <c r="B233" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9313,7 +9312,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B234" s="4" t="n">
+      <c r="B234" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9349,7 +9348,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B235" s="4" t="n">
+      <c r="B235" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -9385,7 +9384,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B236" s="4" t="n">
+      <c r="B236" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -9421,7 +9420,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B237" s="4" t="n">
+      <c r="B237" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9457,7 +9456,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B238" s="4" t="n">
+      <c r="B238" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9495,7 +9494,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B239" s="4" t="n">
+      <c r="B239" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -9531,7 +9530,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B240" s="4" t="n">
+      <c r="B240" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -9567,7 +9566,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B241" s="4" t="n">
+      <c r="B241" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9603,7 +9602,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B242" s="4" t="n">
+      <c r="B242" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9639,7 +9638,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B243" s="4" t="n">
+      <c r="B243" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C243" t="inlineStr">
@@ -9679,7 +9678,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B244" s="4" t="n">
+      <c r="B244" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C244" t="inlineStr">
@@ -9735,7 +9734,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B245" s="4" t="n">
+      <c r="B245" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9771,7 +9770,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B246" s="4" t="n">
+      <c r="B246" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9807,7 +9806,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B247" s="4" t="n">
+      <c r="B247" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -9843,7 +9842,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B248" s="4" t="n">
+      <c r="B248" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -9879,7 +9878,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B249" s="4" t="n">
+      <c r="B249" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9915,7 +9914,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B250" s="4" t="n">
+      <c r="B250" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9951,7 +9950,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B251" s="4" t="n">
+      <c r="B251" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -9987,7 +9986,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B252" s="4" t="n">
+      <c r="B252" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -10023,7 +10022,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B253" s="4" t="n">
+      <c r="B253" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -10061,7 +10060,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B254" s="4" t="n">
+      <c r="B254" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -10097,7 +10096,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B255" s="4" t="n">
+      <c r="B255" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -10133,7 +10132,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B256" s="4" t="n">
+      <c r="B256" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -10169,7 +10168,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B257" s="4" t="n">
+      <c r="B257" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -10205,7 +10204,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B258" s="4" t="n">
+      <c r="B258" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C258" t="inlineStr">
@@ -10245,7 +10244,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B259" s="4" t="n">
+      <c r="B259" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C259" t="inlineStr">
@@ -10301,7 +10300,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B260" s="4" t="n">
+      <c r="B260" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -10337,7 +10336,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B261" s="4" t="n">
+      <c r="B261" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -10373,7 +10372,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B262" s="4" t="n">
+      <c r="B262" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -10409,7 +10408,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B263" s="4" t="n">
+      <c r="B263" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -10445,7 +10444,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B264" s="4" t="n">
+      <c r="B264" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -10481,7 +10480,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B265" s="4" t="n">
+      <c r="B265" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -10517,7 +10516,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B266" s="4" t="n">
+      <c r="B266" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -10553,7 +10552,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B267" s="4" t="n">
+      <c r="B267" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -10589,7 +10588,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B268" s="4" t="n">
+      <c r="B268" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10627,7 +10626,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B269" s="4" t="n">
+      <c r="B269" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10663,7 +10662,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B270" s="4" t="n">
+      <c r="B270" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10699,7 +10698,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B271" s="4" t="n">
+      <c r="B271" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -10735,7 +10734,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B272" s="4" t="n">
+      <c r="B272" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -10771,7 +10770,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B273" s="4" t="n">
+      <c r="B273" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C273" t="inlineStr">
@@ -10811,7 +10810,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B274" s="4" t="n">
+      <c r="B274" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C274" t="inlineStr">
@@ -10867,7 +10866,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B275" s="4" t="n">
+      <c r="B275" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -10903,7 +10902,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B276" s="4" t="n">
+      <c r="B276" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -10939,7 +10938,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B277" s="4" t="n">
+      <c r="B277" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -10975,7 +10974,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B278" s="4" t="n">
+      <c r="B278" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -11011,7 +11010,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B279" s="4" t="n">
+      <c r="B279" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -11047,7 +11046,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B280" s="4" t="n">
+      <c r="B280" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -11083,7 +11082,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B281" s="4" t="n">
+      <c r="B281" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -11119,7 +11118,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B282" s="4" t="n">
+      <c r="B282" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -11155,7 +11154,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B283" s="4" t="n">
+      <c r="B283" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -11193,7 +11192,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B284" s="4" t="n">
+      <c r="B284" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -11229,7 +11228,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B285" s="4" t="n">
+      <c r="B285" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -11265,7 +11264,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B286" s="4" t="n">
+      <c r="B286" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -11301,7 +11300,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B287" s="4" t="n">
+      <c r="B287" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -11337,7 +11336,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B288" s="4" t="n">
+      <c r="B288" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C288" t="inlineStr">
@@ -11377,7 +11376,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B289" s="4" t="n">
+      <c r="B289" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C289" t="inlineStr">
@@ -11433,7 +11432,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B290" s="4" t="n">
+      <c r="B290" s="3" t="n">
         <v>42509</v>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -11469,7 +11468,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B291" s="4" t="n">
+      <c r="B291" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -11505,7 +11504,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B292" s="4" t="n">
+      <c r="B292" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -11541,7 +11540,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B293" s="4" t="n">
+      <c r="B293" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -11577,7 +11576,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B294" s="4" t="n">
+      <c r="B294" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -11613,7 +11612,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B295" s="4" t="n">
+      <c r="B295" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -11649,7 +11648,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B296" s="4" t="n">
+      <c r="B296" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -11685,7 +11684,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B297" s="4" t="n">
+      <c r="B297" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -11721,7 +11720,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B298" s="4" t="n">
+      <c r="B298" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -11757,7 +11756,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B299" s="4" t="n">
+      <c r="B299" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -11793,7 +11792,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B300" s="4" t="n">
+      <c r="B300" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -11831,7 +11830,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B301" s="4" t="n">
+      <c r="B301" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -11867,7 +11866,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B302" s="4" t="n">
+      <c r="B302" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -11903,7 +11902,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B303" s="4" t="n">
+      <c r="B303" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -11943,7 +11942,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B304" s="4" t="n">
+      <c r="B304" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -11979,7 +11978,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B305" s="4" t="n">
+      <c r="B305" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C305" t="inlineStr">
@@ -12019,7 +12018,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B306" s="4" t="n">
+      <c r="B306" s="3" t="n">
         <v>42752</v>
       </c>
       <c r="C306" t="inlineStr">
@@ -12059,7 +12058,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B307" s="4" t="n">
+      <c r="B307" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C307" t="inlineStr">
@@ -12119,7 +12118,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B308" s="4" t="n">
+      <c r="B308" s="3" t="n">
         <v>42509</v>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -12155,7 +12154,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B309" s="4" t="n">
+      <c r="B309" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C309" t="inlineStr"/>
@@ -12191,7 +12190,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B310" s="4" t="n">
+      <c r="B310" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -12227,7 +12226,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B311" s="4" t="n">
+      <c r="B311" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -12263,7 +12262,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B312" s="4" t="n">
+      <c r="B312" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -12299,7 +12298,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B313" s="4" t="n">
+      <c r="B313" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -12335,7 +12334,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B314" s="4" t="n">
+      <c r="B314" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C314" t="inlineStr"/>
@@ -12371,7 +12370,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B315" s="4" t="n">
+      <c r="B315" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C315" t="inlineStr"/>
@@ -12407,7 +12406,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B316" s="4" t="n">
+      <c r="B316" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -12443,7 +12442,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B317" s="4" t="n">
+      <c r="B317" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -12479,7 +12478,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B318" s="4" t="n">
+      <c r="B318" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C318" t="inlineStr"/>
@@ -12517,7 +12516,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B319" s="4" t="n">
+      <c r="B319" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C319" t="inlineStr"/>
@@ -12553,7 +12552,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B320" s="4" t="n">
+      <c r="B320" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C320" t="inlineStr"/>
@@ -12589,7 +12588,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B321" s="4" t="n">
+      <c r="B321" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C321" t="inlineStr"/>
@@ -12629,7 +12628,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B322" s="4" t="n">
+      <c r="B322" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C322" t="inlineStr"/>
@@ -12665,7 +12664,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B323" s="4" t="n">
+      <c r="B323" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C323" t="inlineStr">
@@ -12705,7 +12704,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B324" s="4" t="n">
+      <c r="B324" s="3" t="n">
         <v>42752</v>
       </c>
       <c r="C324" t="inlineStr">
@@ -12745,7 +12744,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B325" s="4" t="n">
+      <c r="B325" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C325" t="inlineStr">
@@ -12805,7 +12804,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B326" s="4" t="n">
+      <c r="B326" s="3" t="n">
         <v>42509</v>
       </c>
       <c r="C326" t="inlineStr"/>
@@ -12841,7 +12840,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B327" s="4" t="n">
+      <c r="B327" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C327" t="inlineStr"/>
@@ -12877,7 +12876,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B328" s="4" t="n">
+      <c r="B328" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C328" t="inlineStr"/>
@@ -12913,7 +12912,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B329" s="4" t="n">
+      <c r="B329" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C329" t="inlineStr"/>
@@ -12949,7 +12948,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B330" s="4" t="n">
+      <c r="B330" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C330" t="inlineStr"/>
@@ -12985,7 +12984,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B331" s="4" t="n">
+      <c r="B331" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C331" t="inlineStr"/>
@@ -13021,7 +13020,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B332" s="4" t="n">
+      <c r="B332" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C332" t="inlineStr"/>
@@ -13057,7 +13056,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B333" s="4" t="n">
+      <c r="B333" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C333" t="inlineStr"/>
@@ -13093,7 +13092,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B334" s="4" t="n">
+      <c r="B334" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C334" t="inlineStr"/>
@@ -13129,7 +13128,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B335" s="4" t="n">
+      <c r="B335" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C335" t="inlineStr"/>
@@ -13165,7 +13164,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B336" s="4" t="n">
+      <c r="B336" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C336" t="inlineStr"/>
@@ -13203,7 +13202,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B337" s="4" t="n">
+      <c r="B337" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C337" t="inlineStr"/>
@@ -13239,7 +13238,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B338" s="4" t="n">
+      <c r="B338" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C338" t="inlineStr"/>
@@ -13275,7 +13274,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B339" s="4" t="n">
+      <c r="B339" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C339" t="inlineStr"/>
@@ -13315,7 +13314,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B340" s="4" t="n">
+      <c r="B340" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C340" t="inlineStr"/>
@@ -13351,7 +13350,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B341" s="4" t="n">
+      <c r="B341" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C341" t="inlineStr">
@@ -13391,7 +13390,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B342" s="4" t="n">
+      <c r="B342" s="3" t="n">
         <v>42752</v>
       </c>
       <c r="C342" t="inlineStr">
@@ -13431,7 +13430,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B343" s="4" t="n">
+      <c r="B343" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C343" t="inlineStr">
@@ -13491,7 +13490,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B344" s="4" t="n">
+      <c r="B344" s="3" t="n">
         <v>42509</v>
       </c>
       <c r="C344" t="inlineStr"/>
@@ -13527,7 +13526,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B345" s="4" t="n">
+      <c r="B345" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C345" t="inlineStr"/>
@@ -13563,7 +13562,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B346" s="4" t="n">
+      <c r="B346" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C346" t="inlineStr"/>
@@ -13599,7 +13598,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B347" s="4" t="n">
+      <c r="B347" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C347" t="inlineStr"/>
@@ -13635,7 +13634,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B348" s="4" t="n">
+      <c r="B348" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C348" t="inlineStr"/>
@@ -13671,7 +13670,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B349" s="4" t="n">
+      <c r="B349" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C349" t="inlineStr"/>
@@ -13707,7 +13706,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B350" s="4" t="n">
+      <c r="B350" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C350" t="inlineStr"/>
@@ -13743,7 +13742,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B351" s="4" t="n">
+      <c r="B351" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C351" t="inlineStr"/>
@@ -13779,7 +13778,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B352" s="4" t="n">
+      <c r="B352" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C352" t="inlineStr"/>
@@ -13815,7 +13814,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B353" s="4" t="n">
+      <c r="B353" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C353" t="inlineStr"/>
@@ -13851,7 +13850,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B354" s="4" t="n">
+      <c r="B354" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C354" t="inlineStr"/>
@@ -13889,7 +13888,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B355" s="4" t="n">
+      <c r="B355" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C355" t="inlineStr"/>
@@ -13925,7 +13924,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B356" s="4" t="n">
+      <c r="B356" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C356" t="inlineStr"/>
@@ -13961,7 +13960,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B357" s="4" t="n">
+      <c r="B357" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C357" t="inlineStr"/>
@@ -13997,7 +13996,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B358" s="4" t="n">
+      <c r="B358" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C358" t="inlineStr"/>
@@ -14033,7 +14032,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B359" s="4" t="n">
+      <c r="B359" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C359" t="inlineStr">
@@ -14073,7 +14072,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B360" s="4" t="n">
+      <c r="B360" s="3" t="n">
         <v>42752</v>
       </c>
       <c r="C360" t="inlineStr">
@@ -14113,7 +14112,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B361" s="4" t="n">
+      <c r="B361" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C361" t="inlineStr">
@@ -14173,7 +14172,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B362" s="4" t="n">
+      <c r="B362" s="3" t="n">
         <v>42509</v>
       </c>
       <c r="C362" t="inlineStr"/>
@@ -14209,7 +14208,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B363" s="4" t="n">
+      <c r="B363" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C363" t="inlineStr"/>
@@ -14245,7 +14244,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B364" s="4" t="n">
+      <c r="B364" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C364" t="inlineStr"/>
@@ -14281,7 +14280,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B365" s="4" t="n">
+      <c r="B365" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C365" t="inlineStr"/>
@@ -14317,7 +14316,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B366" s="4" t="n">
+      <c r="B366" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C366" t="inlineStr"/>
@@ -14353,7 +14352,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B367" s="4" t="n">
+      <c r="B367" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C367" t="inlineStr"/>
@@ -14389,7 +14388,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B368" s="4" t="n">
+      <c r="B368" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C368" t="inlineStr"/>
@@ -14425,7 +14424,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B369" s="4" t="n">
+      <c r="B369" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C369" t="inlineStr"/>
@@ -14461,7 +14460,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B370" s="4" t="n">
+      <c r="B370" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C370" t="inlineStr"/>
@@ -14497,7 +14496,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B371" s="4" t="n">
+      <c r="B371" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C371" t="inlineStr"/>
@@ -14533,7 +14532,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B372" s="4" t="n">
+      <c r="B372" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C372" t="inlineStr"/>
@@ -14571,7 +14570,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B373" s="4" t="n">
+      <c r="B373" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C373" t="inlineStr"/>
@@ -14607,7 +14606,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B374" s="4" t="n">
+      <c r="B374" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C374" t="inlineStr"/>
@@ -14643,7 +14642,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B375" s="4" t="n">
+      <c r="B375" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C375" t="inlineStr"/>
@@ -14679,7 +14678,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B376" s="4" t="n">
+      <c r="B376" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C376" t="inlineStr"/>
@@ -14715,7 +14714,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B377" s="4" t="n">
+      <c r="B377" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C377" t="inlineStr">
@@ -14755,7 +14754,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B378" s="4" t="n">
+      <c r="B378" s="3" t="n">
         <v>42752</v>
       </c>
       <c r="C378" t="inlineStr">
@@ -14795,7 +14794,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B379" s="4" t="n">
+      <c r="B379" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C379" t="inlineStr">
@@ -14855,7 +14854,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B380" s="4" t="n">
+      <c r="B380" s="3" t="n">
         <v>42509</v>
       </c>
       <c r="C380" t="inlineStr"/>
@@ -14891,7 +14890,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B381" s="4" t="n">
+      <c r="B381" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C381" t="inlineStr"/>
@@ -14927,7 +14926,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B382" s="4" t="n">
+      <c r="B382" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C382" t="inlineStr"/>
@@ -14963,7 +14962,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B383" s="4" t="n">
+      <c r="B383" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C383" t="inlineStr"/>
@@ -14999,7 +14998,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B384" s="4" t="n">
+      <c r="B384" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C384" t="inlineStr"/>
@@ -15035,7 +15034,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B385" s="4" t="n">
+      <c r="B385" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C385" t="inlineStr"/>
@@ -15071,7 +15070,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B386" s="4" t="n">
+      <c r="B386" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C386" t="inlineStr"/>
@@ -15107,7 +15106,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B387" s="4" t="n">
+      <c r="B387" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C387" t="inlineStr"/>
@@ -15143,7 +15142,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B388" s="4" t="n">
+      <c r="B388" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C388" t="inlineStr"/>
@@ -15179,7 +15178,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B389" s="4" t="n">
+      <c r="B389" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C389" t="inlineStr"/>
@@ -15215,7 +15214,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B390" s="4" t="n">
+      <c r="B390" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C390" t="inlineStr"/>
@@ -15253,7 +15252,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B391" s="4" t="n">
+      <c r="B391" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C391" t="inlineStr"/>
@@ -15289,7 +15288,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B392" s="4" t="n">
+      <c r="B392" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C392" t="inlineStr"/>
@@ -15325,7 +15324,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B393" s="4" t="n">
+      <c r="B393" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C393" t="inlineStr"/>
@@ -15361,7 +15360,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B394" s="4" t="n">
+      <c r="B394" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C394" t="inlineStr"/>
@@ -15397,7 +15396,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B395" s="4" t="n">
+      <c r="B395" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C395" t="inlineStr">
@@ -15437,7 +15436,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B396" s="4" t="n">
+      <c r="B396" s="3" t="n">
         <v>42752</v>
       </c>
       <c r="C396" t="inlineStr">
@@ -15477,7 +15476,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B397" s="4" t="n">
+      <c r="B397" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C397" t="inlineStr">
@@ -15537,7 +15536,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B398" s="4" t="n">
+      <c r="B398" s="3" t="n">
         <v>42509</v>
       </c>
       <c r="C398" t="inlineStr"/>
@@ -15573,7 +15572,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B399" s="4" t="n">
+      <c r="B399" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C399" t="inlineStr"/>
@@ -15609,7 +15608,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B400" s="4" t="n">
+      <c r="B400" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C400" t="inlineStr"/>
@@ -15645,7 +15644,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B401" s="4" t="n">
+      <c r="B401" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C401" t="inlineStr"/>
@@ -15681,7 +15680,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B402" s="4" t="n">
+      <c r="B402" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C402" t="inlineStr"/>
@@ -15717,7 +15716,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B403" s="4" t="n">
+      <c r="B403" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C403" t="inlineStr"/>
@@ -15753,7 +15752,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B404" s="4" t="n">
+      <c r="B404" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C404" t="inlineStr"/>
@@ -15789,7 +15788,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B405" s="4" t="n">
+      <c r="B405" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C405" t="inlineStr"/>
@@ -15825,7 +15824,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B406" s="4" t="n">
+      <c r="B406" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C406" t="inlineStr"/>
@@ -15861,7 +15860,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B407" s="4" t="n">
+      <c r="B407" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C407" t="inlineStr"/>
@@ -15897,7 +15896,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B408" s="4" t="n">
+      <c r="B408" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C408" t="inlineStr"/>
@@ -15935,7 +15934,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B409" s="4" t="n">
+      <c r="B409" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C409" t="inlineStr"/>
@@ -15971,7 +15970,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B410" s="4" t="n">
+      <c r="B410" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C410" t="inlineStr"/>
@@ -16007,7 +16006,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B411" s="4" t="n">
+      <c r="B411" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C411" t="inlineStr"/>
@@ -16043,7 +16042,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B412" s="4" t="n">
+      <c r="B412" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C412" t="inlineStr"/>
@@ -16079,7 +16078,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B413" s="4" t="n">
+      <c r="B413" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C413" t="inlineStr">
@@ -16119,7 +16118,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B414" s="4" t="n">
+      <c r="B414" s="3" t="n">
         <v>42752</v>
       </c>
       <c r="C414" t="inlineStr">
@@ -16159,7 +16158,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B415" s="4" t="n">
+      <c r="B415" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C415" t="inlineStr">
@@ -16219,7 +16218,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B416" s="4" t="n">
+      <c r="B416" s="3" t="n">
         <v>42509</v>
       </c>
       <c r="C416" t="inlineStr"/>
@@ -16255,7 +16254,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B417" s="4" t="n">
+      <c r="B417" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C417" t="inlineStr"/>
@@ -16291,7 +16290,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B418" s="4" t="n">
+      <c r="B418" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C418" t="inlineStr"/>
@@ -16327,7 +16326,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B419" s="4" t="n">
+      <c r="B419" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C419" t="inlineStr"/>
@@ -16363,7 +16362,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B420" s="4" t="n">
+      <c r="B420" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C420" t="inlineStr"/>
@@ -16399,7 +16398,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B421" s="4" t="n">
+      <c r="B421" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C421" t="inlineStr"/>
@@ -16435,7 +16434,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B422" s="4" t="n">
+      <c r="B422" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C422" t="inlineStr"/>
@@ -16471,7 +16470,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B423" s="4" t="n">
+      <c r="B423" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C423" t="inlineStr"/>
@@ -16507,7 +16506,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B424" s="4" t="n">
+      <c r="B424" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C424" t="inlineStr"/>
@@ -16543,7 +16542,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B425" s="4" t="n">
+      <c r="B425" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C425" t="inlineStr"/>
@@ -16579,7 +16578,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B426" s="4" t="n">
+      <c r="B426" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C426" t="inlineStr"/>
@@ -16617,7 +16616,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B427" s="4" t="n">
+      <c r="B427" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C427" t="inlineStr"/>
@@ -16653,7 +16652,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B428" s="4" t="n">
+      <c r="B428" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C428" t="inlineStr"/>
@@ -16689,7 +16688,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B429" s="4" t="n">
+      <c r="B429" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C429" t="inlineStr"/>
@@ -16725,7 +16724,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B430" s="4" t="n">
+      <c r="B430" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C430" t="inlineStr"/>
@@ -16761,7 +16760,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B431" s="4" t="n">
+      <c r="B431" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C431" t="inlineStr">
@@ -16801,7 +16800,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B432" s="4" t="n">
+      <c r="B432" s="3" t="n">
         <v>42752</v>
       </c>
       <c r="C432" t="inlineStr">
@@ -16841,7 +16840,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B433" s="4" t="n">
+      <c r="B433" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C433" t="inlineStr">
@@ -16901,7 +16900,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B434" s="4" t="n">
+      <c r="B434" s="3" t="n">
         <v>42509</v>
       </c>
       <c r="C434" t="inlineStr"/>
@@ -16937,7 +16936,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B435" s="4" t="n">
+      <c r="B435" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C435" t="inlineStr"/>
@@ -16973,7 +16972,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B436" s="4" t="n">
+      <c r="B436" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C436" t="inlineStr"/>
@@ -17009,7 +17008,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B437" s="4" t="n">
+      <c r="B437" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C437" t="inlineStr"/>
@@ -17045,7 +17044,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B438" s="4" t="n">
+      <c r="B438" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C438" t="inlineStr"/>
@@ -17081,7 +17080,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B439" s="4" t="n">
+      <c r="B439" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C439" t="inlineStr"/>
@@ -17117,7 +17116,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B440" s="4" t="n">
+      <c r="B440" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C440" t="inlineStr"/>
@@ -17153,7 +17152,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B441" s="4" t="n">
+      <c r="B441" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C441" t="inlineStr"/>
@@ -17189,7 +17188,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B442" s="4" t="n">
+      <c r="B442" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C442" t="inlineStr"/>
@@ -17225,7 +17224,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B443" s="4" t="n">
+      <c r="B443" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C443" t="inlineStr"/>
@@ -17261,7 +17260,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B444" s="4" t="n">
+      <c r="B444" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C444" t="inlineStr"/>
@@ -17299,7 +17298,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B445" s="4" t="n">
+      <c r="B445" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C445" t="inlineStr"/>
@@ -17335,7 +17334,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B446" s="4" t="n">
+      <c r="B446" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C446" t="inlineStr"/>
@@ -17371,7 +17370,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B447" s="4" t="n">
+      <c r="B447" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C447" t="inlineStr"/>
@@ -17407,7 +17406,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B448" s="4" t="n">
+      <c r="B448" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C448" t="inlineStr"/>
@@ -17443,7 +17442,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B449" s="4" t="n">
+      <c r="B449" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C449" t="inlineStr">
@@ -17483,7 +17482,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B450" s="4" t="n">
+      <c r="B450" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C450" t="inlineStr">
@@ -17543,7 +17542,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B451" s="4" t="n">
+      <c r="B451" s="3" t="n">
         <v>42509</v>
       </c>
       <c r="C451" t="inlineStr"/>
@@ -17579,7 +17578,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B452" s="4" t="n">
+      <c r="B452" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C452" t="inlineStr"/>
@@ -17615,7 +17614,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B453" s="4" t="n">
+      <c r="B453" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C453" t="inlineStr"/>
@@ -17651,7 +17650,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B454" s="4" t="n">
+      <c r="B454" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C454" t="inlineStr"/>
@@ -17687,7 +17686,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B455" s="4" t="n">
+      <c r="B455" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C455" t="inlineStr"/>
@@ -17723,7 +17722,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B456" s="4" t="n">
+      <c r="B456" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C456" t="inlineStr"/>
@@ -17759,7 +17758,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B457" s="4" t="n">
+      <c r="B457" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C457" t="inlineStr"/>
@@ -17795,7 +17794,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B458" s="4" t="n">
+      <c r="B458" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C458" t="inlineStr"/>
@@ -17831,7 +17830,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B459" s="4" t="n">
+      <c r="B459" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C459" t="inlineStr"/>
@@ -17867,7 +17866,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B460" s="4" t="n">
+      <c r="B460" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C460" t="inlineStr"/>
@@ -17903,7 +17902,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B461" s="4" t="n">
+      <c r="B461" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C461" t="inlineStr"/>
@@ -17941,7 +17940,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B462" s="4" t="n">
+      <c r="B462" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C462" t="inlineStr"/>
@@ -17977,7 +17976,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B463" s="4" t="n">
+      <c r="B463" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C463" t="inlineStr"/>
@@ -18013,7 +18012,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B464" s="4" t="n">
+      <c r="B464" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C464" t="inlineStr"/>
@@ -18049,7 +18048,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B465" s="4" t="n">
+      <c r="B465" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C465" t="inlineStr"/>
@@ -18085,7 +18084,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B466" s="4" t="n">
+      <c r="B466" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C466" t="inlineStr">
@@ -18125,7 +18124,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B467" s="4" t="n">
+      <c r="B467" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C467" t="inlineStr">
@@ -18185,7 +18184,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B468" s="4" t="n">
+      <c r="B468" s="3" t="n">
         <v>42509</v>
       </c>
       <c r="C468" t="inlineStr"/>
@@ -18221,7 +18220,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B469" s="4" t="n">
+      <c r="B469" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C469" t="inlineStr"/>
@@ -18257,7 +18256,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B470" s="4" t="n">
+      <c r="B470" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C470" t="inlineStr"/>
@@ -18293,7 +18292,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B471" s="4" t="n">
+      <c r="B471" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C471" t="inlineStr"/>
@@ -18329,7 +18328,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B472" s="4" t="n">
+      <c r="B472" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C472" t="inlineStr"/>
@@ -18365,7 +18364,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B473" s="4" t="n">
+      <c r="B473" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C473" t="inlineStr"/>
@@ -18401,7 +18400,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B474" s="4" t="n">
+      <c r="B474" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C474" t="inlineStr"/>
@@ -18437,7 +18436,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B475" s="4" t="n">
+      <c r="B475" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C475" t="inlineStr"/>
@@ -18473,7 +18472,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B476" s="4" t="n">
+      <c r="B476" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C476" t="inlineStr"/>
@@ -18509,7 +18508,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B477" s="4" t="n">
+      <c r="B477" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C477" t="inlineStr"/>
@@ -18545,7 +18544,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B478" s="4" t="n">
+      <c r="B478" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C478" t="inlineStr"/>
@@ -18583,7 +18582,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B479" s="4" t="n">
+      <c r="B479" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C479" t="inlineStr"/>
@@ -18619,7 +18618,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B480" s="4" t="n">
+      <c r="B480" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C480" t="inlineStr"/>
@@ -18655,7 +18654,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B481" s="4" t="n">
+      <c r="B481" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C481" t="inlineStr"/>
@@ -18691,7 +18690,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B482" s="4" t="n">
+      <c r="B482" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C482" t="inlineStr"/>
@@ -18727,7 +18726,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B483" s="4" t="n">
+      <c r="B483" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C483" t="inlineStr">
@@ -18767,7 +18766,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B484" s="4" t="n">
+      <c r="B484" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C484" t="inlineStr">
@@ -18827,7 +18826,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B485" s="4" t="n">
+      <c r="B485" s="3" t="n">
         <v>42509</v>
       </c>
       <c r="C485" t="inlineStr"/>
@@ -18863,7 +18862,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B486" s="4" t="n">
+      <c r="B486" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C486" t="inlineStr"/>
@@ -18899,7 +18898,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B487" s="4" t="n">
+      <c r="B487" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C487" t="inlineStr"/>
@@ -18935,7 +18934,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B488" s="4" t="n">
+      <c r="B488" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C488" t="inlineStr"/>
@@ -18971,7 +18970,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B489" s="4" t="n">
+      <c r="B489" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C489" t="inlineStr"/>
@@ -19007,7 +19006,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B490" s="4" t="n">
+      <c r="B490" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C490" t="inlineStr"/>
@@ -19043,7 +19042,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B491" s="4" t="n">
+      <c r="B491" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C491" t="inlineStr"/>
@@ -19079,7 +19078,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B492" s="4" t="n">
+      <c r="B492" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C492" t="inlineStr"/>
@@ -19115,7 +19114,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B493" s="4" t="n">
+      <c r="B493" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C493" t="inlineStr"/>
@@ -19151,7 +19150,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B494" s="4" t="n">
+      <c r="B494" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C494" t="inlineStr"/>
@@ -19187,7 +19186,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B495" s="4" t="n">
+      <c r="B495" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C495" t="inlineStr"/>
@@ -19225,7 +19224,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B496" s="4" t="n">
+      <c r="B496" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C496" t="inlineStr"/>
@@ -19261,7 +19260,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B497" s="4" t="n">
+      <c r="B497" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C497" t="inlineStr"/>
@@ -19297,7 +19296,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B498" s="4" t="n">
+      <c r="B498" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C498" t="inlineStr"/>
@@ -19333,7 +19332,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B499" s="4" t="n">
+      <c r="B499" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C499" t="inlineStr"/>
@@ -19369,7 +19368,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B500" s="4" t="n">
+      <c r="B500" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C500" t="inlineStr">
@@ -19409,7 +19408,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B501" s="4" t="n">
+      <c r="B501" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C501" t="inlineStr">
@@ -19469,7 +19468,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B502" s="4" t="n">
+      <c r="B502" s="3" t="n">
         <v>42509</v>
       </c>
       <c r="C502" t="inlineStr"/>
@@ -19505,7 +19504,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B503" s="4" t="n">
+      <c r="B503" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C503" t="inlineStr"/>
@@ -19541,7 +19540,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B504" s="4" t="n">
+      <c r="B504" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C504" t="inlineStr"/>
@@ -19577,7 +19576,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B505" s="4" t="n">
+      <c r="B505" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C505" t="inlineStr"/>
@@ -19613,7 +19612,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B506" s="4" t="n">
+      <c r="B506" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C506" t="inlineStr"/>
@@ -19649,7 +19648,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B507" s="4" t="n">
+      <c r="B507" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C507" t="inlineStr"/>
@@ -19685,7 +19684,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B508" s="4" t="n">
+      <c r="B508" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C508" t="inlineStr"/>
@@ -19721,7 +19720,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B509" s="4" t="n">
+      <c r="B509" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C509" t="inlineStr"/>
@@ -19757,7 +19756,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B510" s="4" t="n">
+      <c r="B510" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C510" t="inlineStr"/>
@@ -19793,7 +19792,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B511" s="4" t="n">
+      <c r="B511" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C511" t="inlineStr"/>
@@ -19829,7 +19828,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B512" s="4" t="n">
+      <c r="B512" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C512" t="inlineStr"/>
@@ -19867,7 +19866,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B513" s="4" t="n">
+      <c r="B513" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C513" t="inlineStr"/>
@@ -19903,7 +19902,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B514" s="4" t="n">
+      <c r="B514" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C514" t="inlineStr"/>
@@ -19939,7 +19938,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B515" s="4" t="n">
+      <c r="B515" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C515" t="inlineStr"/>
@@ -19975,7 +19974,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B516" s="4" t="n">
+      <c r="B516" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C516" t="inlineStr"/>
@@ -20011,7 +20010,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B517" s="4" t="n">
+      <c r="B517" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C517" t="inlineStr">
@@ -20051,7 +20050,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B518" s="4" t="n">
+      <c r="B518" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C518" t="inlineStr">
@@ -20111,7 +20110,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B519" s="4" t="n">
+      <c r="B519" s="3" t="n">
         <v>42509</v>
       </c>
       <c r="C519" t="inlineStr"/>
@@ -20147,7 +20146,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B520" s="4" t="n">
+      <c r="B520" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C520" t="inlineStr"/>
@@ -20183,7 +20182,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B521" s="4" t="n">
+      <c r="B521" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C521" t="inlineStr"/>
@@ -20219,7 +20218,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B522" s="4" t="n">
+      <c r="B522" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C522" t="inlineStr"/>
@@ -20255,7 +20254,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B523" s="4" t="n">
+      <c r="B523" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C523" t="inlineStr"/>
@@ -20291,7 +20290,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B524" s="4" t="n">
+      <c r="B524" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C524" t="inlineStr"/>
@@ -20327,7 +20326,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B525" s="4" t="n">
+      <c r="B525" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C525" t="inlineStr"/>
@@ -20363,7 +20362,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B526" s="4" t="n">
+      <c r="B526" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C526" t="inlineStr"/>
@@ -20399,7 +20398,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B527" s="4" t="n">
+      <c r="B527" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C527" t="inlineStr"/>
@@ -20435,7 +20434,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B528" s="4" t="n">
+      <c r="B528" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C528" t="inlineStr"/>
@@ -20471,7 +20470,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B529" s="4" t="n">
+      <c r="B529" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C529" t="inlineStr"/>
@@ -20509,7 +20508,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B530" s="4" t="n">
+      <c r="B530" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C530" t="inlineStr"/>
@@ -20545,7 +20544,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B531" s="4" t="n">
+      <c r="B531" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C531" t="inlineStr"/>
@@ -20581,7 +20580,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B532" s="4" t="n">
+      <c r="B532" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C532" t="inlineStr"/>
@@ -20617,7 +20616,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B533" s="4" t="n">
+      <c r="B533" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C533" t="inlineStr"/>
@@ -20653,7 +20652,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B534" s="4" t="n">
+      <c r="B534" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C534" t="inlineStr">
@@ -20693,7 +20692,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B535" s="4" t="n">
+      <c r="B535" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C535" t="inlineStr">
@@ -20753,7 +20752,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B536" s="4" t="n">
+      <c r="B536" s="3" t="n">
         <v>42509</v>
       </c>
       <c r="C536" t="inlineStr"/>
@@ -20789,7 +20788,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B537" s="4" t="n">
+      <c r="B537" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C537" t="inlineStr"/>
@@ -20825,7 +20824,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B538" s="4" t="n">
+      <c r="B538" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C538" t="inlineStr"/>
@@ -20861,7 +20860,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B539" s="4" t="n">
+      <c r="B539" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C539" t="inlineStr"/>
@@ -20897,7 +20896,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B540" s="4" t="n">
+      <c r="B540" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C540" t="inlineStr"/>
@@ -20933,7 +20932,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B541" s="4" t="n">
+      <c r="B541" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C541" t="inlineStr"/>
@@ -20969,7 +20968,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B542" s="4" t="n">
+      <c r="B542" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C542" t="inlineStr"/>
@@ -21005,7 +21004,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B543" s="4" t="n">
+      <c r="B543" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C543" t="inlineStr"/>
@@ -21041,7 +21040,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B544" s="4" t="n">
+      <c r="B544" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C544" t="inlineStr"/>
@@ -21077,7 +21076,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B545" s="4" t="n">
+      <c r="B545" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C545" t="inlineStr"/>
@@ -21113,7 +21112,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B546" s="4" t="n">
+      <c r="B546" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C546" t="inlineStr"/>
@@ -21151,7 +21150,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B547" s="4" t="n">
+      <c r="B547" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C547" t="inlineStr"/>
@@ -21187,7 +21186,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B548" s="4" t="n">
+      <c r="B548" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C548" t="inlineStr"/>
@@ -21223,7 +21222,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B549" s="4" t="n">
+      <c r="B549" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C549" t="inlineStr"/>
@@ -21259,7 +21258,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B550" s="4" t="n">
+      <c r="B550" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C550" t="inlineStr"/>
@@ -21295,7 +21294,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B551" s="4" t="n">
+      <c r="B551" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C551" t="inlineStr">
@@ -21335,7 +21334,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B552" s="4" t="n">
+      <c r="B552" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C552" t="inlineStr">
@@ -21395,7 +21394,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B553" s="4" t="n">
+      <c r="B553" s="3" t="n">
         <v>42509</v>
       </c>
       <c r="C553" t="inlineStr"/>
@@ -21431,7 +21430,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B554" s="4" t="n">
+      <c r="B554" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C554" t="inlineStr"/>
@@ -21467,7 +21466,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B555" s="4" t="n">
+      <c r="B555" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C555" t="inlineStr"/>
@@ -21503,7 +21502,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B556" s="4" t="n">
+      <c r="B556" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C556" t="inlineStr"/>
@@ -21539,7 +21538,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B557" s="4" t="n">
+      <c r="B557" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C557" t="inlineStr"/>
@@ -21575,7 +21574,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B558" s="4" t="n">
+      <c r="B558" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C558" t="inlineStr"/>
@@ -21611,7 +21610,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B559" s="4" t="n">
+      <c r="B559" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C559" t="inlineStr"/>
@@ -21647,7 +21646,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B560" s="4" t="n">
+      <c r="B560" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C560" t="inlineStr"/>
@@ -21683,7 +21682,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B561" s="4" t="n">
+      <c r="B561" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C561" t="inlineStr"/>
@@ -21719,7 +21718,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B562" s="4" t="n">
+      <c r="B562" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C562" t="inlineStr"/>
@@ -21755,7 +21754,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B563" s="4" t="n">
+      <c r="B563" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C563" t="inlineStr"/>
@@ -21793,7 +21792,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B564" s="4" t="n">
+      <c r="B564" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C564" t="inlineStr"/>
@@ -21829,7 +21828,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B565" s="4" t="n">
+      <c r="B565" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C565" t="inlineStr"/>
@@ -21865,7 +21864,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B566" s="4" t="n">
+      <c r="B566" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C566" t="inlineStr"/>
@@ -21901,7 +21900,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B567" s="4" t="n">
+      <c r="B567" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C567" t="inlineStr"/>
@@ -21937,7 +21936,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B568" s="4" t="n">
+      <c r="B568" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C568" t="inlineStr">
@@ -21977,7 +21976,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B569" s="4" t="n">
+      <c r="B569" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C569" t="inlineStr">
@@ -22037,7 +22036,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B570" s="4" t="n">
+      <c r="B570" s="3" t="n">
         <v>42509</v>
       </c>
       <c r="C570" t="inlineStr"/>
@@ -22073,7 +22072,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B571" s="4" t="n">
+      <c r="B571" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C571" t="inlineStr"/>
@@ -22109,7 +22108,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B572" s="4" t="n">
+      <c r="B572" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C572" t="inlineStr"/>
@@ -22145,7 +22144,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B573" s="4" t="n">
+      <c r="B573" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C573" t="inlineStr"/>
@@ -22181,7 +22180,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B574" s="4" t="n">
+      <c r="B574" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C574" t="inlineStr"/>
@@ -22217,7 +22216,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B575" s="4" t="n">
+      <c r="B575" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C575" t="inlineStr"/>
@@ -22253,7 +22252,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B576" s="4" t="n">
+      <c r="B576" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C576" t="inlineStr"/>
@@ -22289,7 +22288,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B577" s="4" t="n">
+      <c r="B577" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C577" t="inlineStr"/>
@@ -22325,7 +22324,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B578" s="4" t="n">
+      <c r="B578" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C578" t="inlineStr"/>
@@ -22361,7 +22360,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B579" s="4" t="n">
+      <c r="B579" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C579" t="inlineStr"/>
@@ -22397,7 +22396,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B580" s="4" t="n">
+      <c r="B580" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C580" t="inlineStr"/>
@@ -22435,7 +22434,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B581" s="4" t="n">
+      <c r="B581" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C581" t="inlineStr"/>
@@ -22471,7 +22470,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B582" s="4" t="n">
+      <c r="B582" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C582" t="inlineStr"/>
@@ -22507,7 +22506,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B583" s="4" t="n">
+      <c r="B583" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C583" t="inlineStr"/>
@@ -22543,7 +22542,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B584" s="4" t="n">
+      <c r="B584" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C584" t="inlineStr"/>
@@ -22579,7 +22578,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B585" s="4" t="n">
+      <c r="B585" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C585" t="inlineStr">
@@ -22619,7 +22618,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B586" s="4" t="n">
+      <c r="B586" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C586" t="inlineStr">
@@ -22679,7 +22678,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B587" s="4" t="n">
+      <c r="B587" s="3" t="n">
         <v>42509</v>
       </c>
       <c r="C587" t="inlineStr"/>
@@ -22715,7 +22714,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B588" s="4" t="n">
+      <c r="B588" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C588" t="inlineStr"/>
@@ -22751,7 +22750,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B589" s="4" t="n">
+      <c r="B589" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C589" t="inlineStr"/>
@@ -22787,7 +22786,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B590" s="4" t="n">
+      <c r="B590" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C590" t="inlineStr"/>
@@ -22823,7 +22822,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B591" s="4" t="n">
+      <c r="B591" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C591" t="inlineStr"/>
@@ -22859,7 +22858,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B592" s="4" t="n">
+      <c r="B592" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C592" t="inlineStr"/>
@@ -22895,7 +22894,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B593" s="4" t="n">
+      <c r="B593" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C593" t="inlineStr"/>
@@ -22931,7 +22930,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B594" s="4" t="n">
+      <c r="B594" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C594" t="inlineStr"/>
@@ -22967,7 +22966,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B595" s="4" t="n">
+      <c r="B595" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C595" t="inlineStr"/>
@@ -23003,7 +23002,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B596" s="4" t="n">
+      <c r="B596" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C596" t="inlineStr"/>
@@ -23039,7 +23038,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B597" s="4" t="n">
+      <c r="B597" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C597" t="inlineStr"/>
@@ -23077,7 +23076,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B598" s="4" t="n">
+      <c r="B598" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C598" t="inlineStr"/>
@@ -23113,7 +23112,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B599" s="4" t="n">
+      <c r="B599" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C599" t="inlineStr"/>
@@ -23149,7 +23148,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B600" s="4" t="n">
+      <c r="B600" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C600" t="inlineStr"/>
@@ -23185,7 +23184,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B601" s="4" t="n">
+      <c r="B601" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C601" t="inlineStr"/>
@@ -23221,7 +23220,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B602" s="4" t="n">
+      <c r="B602" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C602" t="inlineStr">
@@ -23261,7 +23260,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B603" s="4" t="n">
+      <c r="B603" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C603" t="inlineStr">
@@ -23321,7 +23320,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B604" s="4" t="n">
+      <c r="B604" s="3" t="n">
         <v>42509</v>
       </c>
       <c r="C604" t="inlineStr"/>
@@ -23357,7 +23356,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B605" s="4" t="n">
+      <c r="B605" s="3" t="n">
         <v>42510</v>
       </c>
       <c r="C605" t="inlineStr"/>
@@ -23393,7 +23392,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B606" s="4" t="n">
+      <c r="B606" s="3" t="n">
         <v>42530</v>
       </c>
       <c r="C606" t="inlineStr"/>
@@ -23429,7 +23428,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B607" s="4" t="n">
+      <c r="B607" s="3" t="n">
         <v>42543</v>
       </c>
       <c r="C607" t="inlineStr"/>
@@ -23465,7 +23464,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B608" s="4" t="n">
+      <c r="B608" s="3" t="n">
         <v>42570</v>
       </c>
       <c r="C608" t="inlineStr"/>
@@ -23501,7 +23500,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B609" s="4" t="n">
+      <c r="B609" s="3" t="n">
         <v>42590</v>
       </c>
       <c r="C609" t="inlineStr"/>
@@ -23537,7 +23536,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B610" s="4" t="n">
+      <c r="B610" s="3" t="n">
         <v>42605</v>
       </c>
       <c r="C610" t="inlineStr"/>
@@ -23573,7 +23572,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B611" s="4" t="n">
+      <c r="B611" s="3" t="n">
         <v>42607</v>
       </c>
       <c r="C611" t="inlineStr"/>
@@ -23609,7 +23608,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B612" s="4" t="n">
+      <c r="B612" s="3" t="n">
         <v>42621</v>
       </c>
       <c r="C612" t="inlineStr"/>
@@ -23645,7 +23644,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B613" s="4" t="n">
+      <c r="B613" s="3" t="n">
         <v>42641</v>
       </c>
       <c r="C613" t="inlineStr"/>
@@ -23681,7 +23680,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B614" s="4" t="n">
+      <c r="B614" s="3" t="n">
         <v>42654</v>
       </c>
       <c r="C614" t="inlineStr"/>
@@ -23719,7 +23718,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B615" s="4" t="n">
+      <c r="B615" s="3" t="n">
         <v>42668</v>
       </c>
       <c r="C615" t="inlineStr"/>
@@ -23755,7 +23754,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B616" s="4" t="n">
+      <c r="B616" s="3" t="n">
         <v>42684</v>
       </c>
       <c r="C616" t="inlineStr"/>
@@ -23791,7 +23790,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B617" s="4" t="n">
+      <c r="B617" s="3" t="n">
         <v>42698</v>
       </c>
       <c r="C617" t="inlineStr"/>
@@ -23827,7 +23826,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B618" s="4" t="n">
+      <c r="B618" s="3" t="n">
         <v>42713</v>
       </c>
       <c r="C618" t="inlineStr"/>
@@ -23863,7 +23862,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B619" s="4" t="n">
+      <c r="B619" s="3" t="n">
         <v>42739</v>
       </c>
       <c r="C619" t="inlineStr">
@@ -23903,7 +23902,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B620" s="4" t="n">
+      <c r="B620" s="3" t="n">
         <v>42758</v>
       </c>
       <c r="C620" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR TAS W16-01-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR TAS W16-01-2.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +462,7 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
@@ -566,7 +567,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -602,7 +603,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -638,7 +639,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -674,7 +675,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -710,7 +711,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -746,7 +747,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -782,7 +783,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>42618</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -818,7 +819,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -854,7 +855,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -890,7 +891,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -928,7 +929,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -964,7 +965,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1000,7 +1001,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1036,7 +1037,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1072,7 +1073,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1112,7 +1113,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1168,7 +1169,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1204,7 +1205,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1240,7 +1241,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1276,7 +1277,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1312,7 +1313,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1348,7 +1349,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1384,7 +1385,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>42618</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1420,7 +1421,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1456,7 +1457,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1492,7 +1493,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1530,7 +1531,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1566,7 +1567,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1602,7 +1603,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1642,7 +1643,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1678,7 +1679,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1718,7 +1719,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1774,7 +1775,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1810,7 +1811,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1846,7 +1847,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1882,7 +1883,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1918,7 +1919,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1954,7 +1955,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1990,7 +1991,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>42618</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2026,7 +2027,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2062,7 +2063,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2098,7 +2099,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2136,7 +2137,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2172,7 +2173,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2208,7 +2209,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2244,7 +2245,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2280,7 +2281,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2320,7 +2321,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2376,7 +2377,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2412,7 +2413,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2448,7 +2449,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2484,7 +2485,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2520,7 +2521,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2556,7 +2557,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2592,7 +2593,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2628,7 +2629,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2664,7 +2665,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2702,7 +2703,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2738,7 +2739,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2774,7 +2775,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2810,7 +2811,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2846,7 +2847,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C63" t="inlineStr">
@@ -2886,7 +2887,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2942,7 +2943,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2978,7 +2979,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3014,7 +3015,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3050,7 +3051,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3086,7 +3087,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3122,7 +3123,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3158,7 +3159,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3194,7 +3195,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3230,7 +3231,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3268,7 +3269,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3304,7 +3305,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3340,7 +3341,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3376,7 +3377,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3412,7 +3413,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -3452,7 +3453,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -3508,7 +3509,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3544,7 +3545,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3580,7 +3581,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3616,7 +3617,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3652,7 +3653,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3688,7 +3689,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3724,7 +3725,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3760,7 +3761,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3796,7 +3797,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3834,7 +3835,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3870,7 +3871,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3906,7 +3907,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3942,7 +3943,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3978,7 +3979,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -4018,7 +4019,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -4074,7 +4075,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4110,7 +4111,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4146,7 +4147,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4182,7 +4183,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4218,7 +4219,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4254,7 +4255,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4290,7 +4291,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4326,7 +4327,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4362,7 +4363,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4400,7 +4401,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4436,7 +4437,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4472,7 +4473,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4508,7 +4509,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4544,7 +4545,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C108" t="inlineStr">
@@ -4584,7 +4585,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C109" t="inlineStr">
@@ -4640,7 +4641,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4676,7 +4677,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4712,7 +4713,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4748,7 +4749,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4784,7 +4785,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4820,7 +4821,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4856,7 +4857,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4892,7 +4893,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4928,7 +4929,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4966,7 +4967,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5002,7 +5003,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5038,7 +5039,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5074,7 +5075,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5110,7 +5111,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C123" t="inlineStr">
@@ -5150,7 +5151,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C124" t="inlineStr">
@@ -5206,7 +5207,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5242,7 +5243,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5278,7 +5279,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5314,7 +5315,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5350,7 +5351,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5386,7 +5387,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5422,7 +5423,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5458,7 +5459,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5494,7 +5495,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5532,7 +5533,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5568,7 +5569,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5604,7 +5605,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5640,7 +5641,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5676,7 +5677,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C138" t="inlineStr">
@@ -5716,7 +5717,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C139" t="inlineStr">
@@ -5772,7 +5773,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5808,7 +5809,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5844,7 +5845,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5880,7 +5881,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5916,7 +5917,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -5952,7 +5953,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5988,7 +5989,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6024,7 +6025,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6060,7 +6061,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6098,7 +6099,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6134,7 +6135,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6170,7 +6171,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6206,7 +6207,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6242,7 +6243,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C153" t="inlineStr">
@@ -6282,7 +6283,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C154" t="inlineStr">
@@ -6338,7 +6339,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6374,7 +6375,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6410,7 +6411,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6446,7 +6447,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6482,7 +6483,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6518,7 +6519,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6554,7 +6555,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6590,7 +6591,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6626,7 +6627,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6664,7 +6665,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6700,7 +6701,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6736,7 +6737,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -6772,7 +6773,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6808,7 +6809,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C168" t="inlineStr">
@@ -6848,7 +6849,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -6904,7 +6905,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6940,7 +6941,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6976,7 +6977,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -7012,7 +7013,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7048,7 +7049,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7084,7 +7085,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7120,7 +7121,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7156,7 +7157,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7192,7 +7193,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7230,7 +7231,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7266,7 +7267,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7302,7 +7303,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7338,7 +7339,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7374,7 +7375,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C183" t="inlineStr">
@@ -7414,7 +7415,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C184" t="inlineStr">
@@ -7470,7 +7471,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7506,7 +7507,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7542,7 +7543,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7578,7 +7579,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7614,7 +7615,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7650,7 +7651,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7686,7 +7687,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7722,7 +7723,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -7758,7 +7759,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7796,7 +7797,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7832,7 +7833,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7868,7 +7869,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7904,7 +7905,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7940,7 +7941,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C198" t="inlineStr">
@@ -7980,7 +7981,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C199" t="inlineStr">
@@ -8036,7 +8037,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8072,7 +8073,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8108,7 +8109,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8144,7 +8145,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8180,7 +8181,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8216,7 +8217,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8252,7 +8253,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8288,7 +8289,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8324,7 +8325,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -8362,7 +8363,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -8398,7 +8399,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8434,7 +8435,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8470,7 +8471,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8506,7 +8507,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C213" t="inlineStr">
@@ -8546,7 +8547,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10006-026</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C214" t="inlineStr">
@@ -8602,7 +8603,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8638,7 +8639,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8674,7 +8675,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8710,7 +8711,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8746,7 +8747,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8782,7 +8783,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8818,7 +8819,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8854,7 +8855,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8890,7 +8891,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8928,7 +8929,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -8964,7 +8965,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -9000,7 +9001,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9036,7 +9037,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9072,7 +9073,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C228" t="inlineStr">
@@ -9112,7 +9113,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV08126-64</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C229" t="inlineStr">
@@ -9168,7 +9169,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9204,7 +9205,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9240,7 +9241,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9276,7 +9277,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9312,7 +9313,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9348,7 +9349,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -9384,7 +9385,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -9420,7 +9421,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9456,7 +9457,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9494,7 +9495,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -9530,7 +9531,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -9566,7 +9567,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9602,7 +9603,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9638,7 +9639,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C243" t="inlineStr">
@@ -9678,7 +9679,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvV10083-050</t>
         </is>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C244" t="inlineStr">
@@ -9734,7 +9735,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9770,7 +9771,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B246" s="3" t="n">
+      <c r="B246" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9806,7 +9807,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B247" s="3" t="n">
+      <c r="B247" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -9842,7 +9843,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B248" s="3" t="n">
+      <c r="B248" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -9878,7 +9879,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B249" s="3" t="n">
+      <c r="B249" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9914,7 +9915,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B250" s="3" t="n">
+      <c r="B250" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9950,7 +9951,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B251" s="3" t="n">
+      <c r="B251" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -9986,7 +9987,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B252" s="3" t="n">
+      <c r="B252" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -10022,7 +10023,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B253" s="3" t="n">
+      <c r="B253" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -10060,7 +10061,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B254" s="3" t="n">
+      <c r="B254" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -10096,7 +10097,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B255" s="3" t="n">
+      <c r="B255" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -10132,7 +10133,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B256" s="3" t="n">
+      <c r="B256" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -10168,7 +10169,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B257" s="3" t="n">
+      <c r="B257" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -10204,7 +10205,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B258" s="3" t="n">
+      <c r="B258" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C258" t="inlineStr">
@@ -10244,7 +10245,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS3250.30</t>
         </is>
       </c>
-      <c r="B259" s="3" t="n">
+      <c r="B259" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C259" t="inlineStr">
@@ -10300,7 +10301,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B260" s="3" t="n">
+      <c r="B260" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -10336,7 +10337,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B261" s="3" t="n">
+      <c r="B261" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -10372,7 +10373,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B262" s="3" t="n">
+      <c r="B262" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -10408,7 +10409,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B263" s="3" t="n">
+      <c r="B263" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -10444,7 +10445,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B264" s="3" t="n">
+      <c r="B264" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -10480,7 +10481,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B265" s="3" t="n">
+      <c r="B265" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -10516,7 +10517,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B266" s="3" t="n">
+      <c r="B266" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -10552,7 +10553,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B267" s="3" t="n">
+      <c r="B267" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -10588,7 +10589,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B268" s="3" t="n">
+      <c r="B268" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10626,7 +10627,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B269" s="3" t="n">
+      <c r="B269" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10662,7 +10663,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B270" s="3" t="n">
+      <c r="B270" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10698,7 +10699,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B271" s="3" t="n">
+      <c r="B271" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -10734,7 +10735,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B272" s="3" t="n">
+      <c r="B272" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -10770,7 +10771,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B273" s="3" t="n">
+      <c r="B273" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C273" t="inlineStr">
@@ -10810,7 +10811,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCS98152.79</t>
         </is>
       </c>
-      <c r="B274" s="3" t="n">
+      <c r="B274" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C274" t="inlineStr">
@@ -10866,7 +10867,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B275" s="3" t="n">
+      <c r="B275" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -10902,7 +10903,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B276" s="3" t="n">
+      <c r="B276" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -10938,7 +10939,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B277" s="3" t="n">
+      <c r="B277" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -10974,7 +10975,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B278" s="3" t="n">
+      <c r="B278" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -11010,7 +11011,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B279" s="3" t="n">
+      <c r="B279" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -11046,7 +11047,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B280" s="3" t="n">
+      <c r="B280" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -11082,7 +11083,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B281" s="3" t="n">
+      <c r="B281" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -11118,7 +11119,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B282" s="3" t="n">
+      <c r="B282" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -11154,7 +11155,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B283" s="3" t="n">
+      <c r="B283" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -11192,7 +11193,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B284" s="3" t="n">
+      <c r="B284" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -11228,7 +11229,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B285" s="3" t="n">
+      <c r="B285" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -11264,7 +11265,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B286" s="3" t="n">
+      <c r="B286" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -11300,7 +11301,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B287" s="3" t="n">
+      <c r="B287" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -11336,7 +11337,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B288" s="3" t="n">
+      <c r="B288" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C288" t="inlineStr">
@@ -11376,7 +11377,7 @@
           <t>FAR TAS W16-01-2MgmtStandardCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B289" s="3" t="n">
+      <c r="B289" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C289" t="inlineStr">
@@ -11432,7 +11433,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B290" s="3" t="n">
+      <c r="B290" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -11468,7 +11469,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B291" s="3" t="n">
+      <c r="B291" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -11504,7 +11505,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B292" s="3" t="n">
+      <c r="B292" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -11540,7 +11541,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B293" s="3" t="n">
+      <c r="B293" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -11576,7 +11577,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B294" s="3" t="n">
+      <c r="B294" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -11612,7 +11613,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B295" s="3" t="n">
+      <c r="B295" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -11648,7 +11649,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B296" s="3" t="n">
+      <c r="B296" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -11684,7 +11685,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B297" s="3" t="n">
+      <c r="B297" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -11720,7 +11721,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B298" s="3" t="n">
+      <c r="B298" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -11756,7 +11757,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B299" s="3" t="n">
+      <c r="B299" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -11792,7 +11793,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B300" s="3" t="n">
+      <c r="B300" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -11830,7 +11831,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B301" s="3" t="n">
+      <c r="B301" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -11866,7 +11867,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B302" s="3" t="n">
+      <c r="B302" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -11902,7 +11903,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B303" s="3" t="n">
+      <c r="B303" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -11942,7 +11943,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B304" s="3" t="n">
+      <c r="B304" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -11978,7 +11979,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B305" s="3" t="n">
+      <c r="B305" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C305" t="inlineStr">
@@ -12018,7 +12019,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B306" s="3" t="n">
+      <c r="B306" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C306" t="inlineStr">
@@ -12058,7 +12059,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B307" s="3" t="n">
+      <c r="B307" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C307" t="inlineStr">
@@ -12118,7 +12119,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B308" s="3" t="n">
+      <c r="B308" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -12154,7 +12155,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B309" s="3" t="n">
+      <c r="B309" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C309" t="inlineStr"/>
@@ -12190,7 +12191,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B310" s="3" t="n">
+      <c r="B310" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -12226,7 +12227,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B311" s="3" t="n">
+      <c r="B311" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -12262,7 +12263,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B312" s="3" t="n">
+      <c r="B312" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -12298,7 +12299,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B313" s="3" t="n">
+      <c r="B313" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -12334,7 +12335,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B314" s="3" t="n">
+      <c r="B314" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C314" t="inlineStr"/>
@@ -12370,7 +12371,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B315" s="3" t="n">
+      <c r="B315" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C315" t="inlineStr"/>
@@ -12406,7 +12407,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B316" s="3" t="n">
+      <c r="B316" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -12442,7 +12443,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B317" s="3" t="n">
+      <c r="B317" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -12478,7 +12479,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B318" s="3" t="n">
+      <c r="B318" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C318" t="inlineStr"/>
@@ -12516,7 +12517,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B319" s="3" t="n">
+      <c r="B319" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C319" t="inlineStr"/>
@@ -12552,7 +12553,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B320" s="3" t="n">
+      <c r="B320" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C320" t="inlineStr"/>
@@ -12588,7 +12589,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B321" s="3" t="n">
+      <c r="B321" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C321" t="inlineStr"/>
@@ -12628,7 +12629,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B322" s="3" t="n">
+      <c r="B322" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C322" t="inlineStr"/>
@@ -12664,7 +12665,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B323" s="3" t="n">
+      <c r="B323" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C323" t="inlineStr">
@@ -12704,7 +12705,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B324" s="3" t="n">
+      <c r="B324" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C324" t="inlineStr">
@@ -12744,7 +12745,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B325" s="3" t="n">
+      <c r="B325" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C325" t="inlineStr">
@@ -12804,7 +12805,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B326" s="3" t="n">
+      <c r="B326" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C326" t="inlineStr"/>
@@ -12840,7 +12841,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B327" s="3" t="n">
+      <c r="B327" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C327" t="inlineStr"/>
@@ -12876,7 +12877,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B328" s="3" t="n">
+      <c r="B328" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C328" t="inlineStr"/>
@@ -12912,7 +12913,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B329" s="3" t="n">
+      <c r="B329" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C329" t="inlineStr"/>
@@ -12948,7 +12949,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B330" s="3" t="n">
+      <c r="B330" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C330" t="inlineStr"/>
@@ -12984,7 +12985,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B331" s="3" t="n">
+      <c r="B331" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C331" t="inlineStr"/>
@@ -13020,7 +13021,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B332" s="3" t="n">
+      <c r="B332" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C332" t="inlineStr"/>
@@ -13056,7 +13057,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B333" s="3" t="n">
+      <c r="B333" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C333" t="inlineStr"/>
@@ -13092,7 +13093,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B334" s="3" t="n">
+      <c r="B334" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C334" t="inlineStr"/>
@@ -13128,7 +13129,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B335" s="3" t="n">
+      <c r="B335" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C335" t="inlineStr"/>
@@ -13164,7 +13165,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B336" s="3" t="n">
+      <c r="B336" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C336" t="inlineStr"/>
@@ -13202,7 +13203,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B337" s="3" t="n">
+      <c r="B337" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C337" t="inlineStr"/>
@@ -13238,7 +13239,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B338" s="3" t="n">
+      <c r="B338" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C338" t="inlineStr"/>
@@ -13274,7 +13275,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B339" s="3" t="n">
+      <c r="B339" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C339" t="inlineStr"/>
@@ -13314,7 +13315,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B340" s="3" t="n">
+      <c r="B340" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C340" t="inlineStr"/>
@@ -13350,7 +13351,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B341" s="3" t="n">
+      <c r="B341" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C341" t="inlineStr">
@@ -13390,7 +13391,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B342" s="3" t="n">
+      <c r="B342" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C342" t="inlineStr">
@@ -13430,7 +13431,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B343" s="3" t="n">
+      <c r="B343" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C343" t="inlineStr">
@@ -13490,7 +13491,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B344" s="3" t="n">
+      <c r="B344" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C344" t="inlineStr"/>
@@ -13526,7 +13527,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B345" s="3" t="n">
+      <c r="B345" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C345" t="inlineStr"/>
@@ -13562,7 +13563,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B346" s="3" t="n">
+      <c r="B346" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C346" t="inlineStr"/>
@@ -13598,7 +13599,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B347" s="3" t="n">
+      <c r="B347" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C347" t="inlineStr"/>
@@ -13634,7 +13635,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B348" s="3" t="n">
+      <c r="B348" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C348" t="inlineStr"/>
@@ -13670,7 +13671,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B349" s="3" t="n">
+      <c r="B349" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C349" t="inlineStr"/>
@@ -13706,7 +13707,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B350" s="3" t="n">
+      <c r="B350" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C350" t="inlineStr"/>
@@ -13742,7 +13743,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B351" s="3" t="n">
+      <c r="B351" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C351" t="inlineStr"/>
@@ -13778,7 +13779,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B352" s="3" t="n">
+      <c r="B352" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C352" t="inlineStr"/>
@@ -13814,7 +13815,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B353" s="3" t="n">
+      <c r="B353" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C353" t="inlineStr"/>
@@ -13850,7 +13851,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B354" s="3" t="n">
+      <c r="B354" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C354" t="inlineStr"/>
@@ -13888,7 +13889,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B355" s="3" t="n">
+      <c r="B355" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C355" t="inlineStr"/>
@@ -13924,7 +13925,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B356" s="3" t="n">
+      <c r="B356" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C356" t="inlineStr"/>
@@ -13960,7 +13961,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B357" s="3" t="n">
+      <c r="B357" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C357" t="inlineStr"/>
@@ -13996,7 +13997,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B358" s="3" t="n">
+      <c r="B358" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C358" t="inlineStr"/>
@@ -14032,7 +14033,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B359" s="3" t="n">
+      <c r="B359" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C359" t="inlineStr">
@@ -14072,7 +14073,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B360" s="3" t="n">
+      <c r="B360" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C360" t="inlineStr">
@@ -14112,7 +14113,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B361" s="3" t="n">
+      <c r="B361" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C361" t="inlineStr">
@@ -14172,7 +14173,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B362" s="3" t="n">
+      <c r="B362" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C362" t="inlineStr"/>
@@ -14208,7 +14209,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B363" s="3" t="n">
+      <c r="B363" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C363" t="inlineStr"/>
@@ -14244,7 +14245,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B364" s="3" t="n">
+      <c r="B364" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C364" t="inlineStr"/>
@@ -14280,7 +14281,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B365" s="3" t="n">
+      <c r="B365" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C365" t="inlineStr"/>
@@ -14316,7 +14317,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B366" s="3" t="n">
+      <c r="B366" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C366" t="inlineStr"/>
@@ -14352,7 +14353,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B367" s="3" t="n">
+      <c r="B367" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C367" t="inlineStr"/>
@@ -14388,7 +14389,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B368" s="3" t="n">
+      <c r="B368" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C368" t="inlineStr"/>
@@ -14424,7 +14425,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B369" s="3" t="n">
+      <c r="B369" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C369" t="inlineStr"/>
@@ -14460,7 +14461,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B370" s="3" t="n">
+      <c r="B370" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C370" t="inlineStr"/>
@@ -14496,7 +14497,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B371" s="3" t="n">
+      <c r="B371" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C371" t="inlineStr"/>
@@ -14532,7 +14533,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B372" s="3" t="n">
+      <c r="B372" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C372" t="inlineStr"/>
@@ -14570,7 +14571,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B373" s="3" t="n">
+      <c r="B373" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C373" t="inlineStr"/>
@@ -14606,7 +14607,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B374" s="3" t="n">
+      <c r="B374" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C374" t="inlineStr"/>
@@ -14642,7 +14643,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B375" s="3" t="n">
+      <c r="B375" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C375" t="inlineStr"/>
@@ -14678,7 +14679,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B376" s="3" t="n">
+      <c r="B376" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C376" t="inlineStr"/>
@@ -14714,7 +14715,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B377" s="3" t="n">
+      <c r="B377" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C377" t="inlineStr">
@@ -14754,7 +14755,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B378" s="3" t="n">
+      <c r="B378" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C378" t="inlineStr">
@@ -14794,7 +14795,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B379" s="3" t="n">
+      <c r="B379" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C379" t="inlineStr">
@@ -14854,7 +14855,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B380" s="3" t="n">
+      <c r="B380" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C380" t="inlineStr"/>
@@ -14890,7 +14891,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B381" s="3" t="n">
+      <c r="B381" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C381" t="inlineStr"/>
@@ -14926,7 +14927,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B382" s="3" t="n">
+      <c r="B382" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C382" t="inlineStr"/>
@@ -14962,7 +14963,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B383" s="3" t="n">
+      <c r="B383" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C383" t="inlineStr"/>
@@ -14998,7 +14999,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B384" s="3" t="n">
+      <c r="B384" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C384" t="inlineStr"/>
@@ -15034,7 +15035,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B385" s="3" t="n">
+      <c r="B385" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C385" t="inlineStr"/>
@@ -15070,7 +15071,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B386" s="3" t="n">
+      <c r="B386" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C386" t="inlineStr"/>
@@ -15106,7 +15107,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B387" s="3" t="n">
+      <c r="B387" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C387" t="inlineStr"/>
@@ -15142,7 +15143,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B388" s="3" t="n">
+      <c r="B388" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C388" t="inlineStr"/>
@@ -15178,7 +15179,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B389" s="3" t="n">
+      <c r="B389" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C389" t="inlineStr"/>
@@ -15214,7 +15215,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B390" s="3" t="n">
+      <c r="B390" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C390" t="inlineStr"/>
@@ -15252,7 +15253,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B391" s="3" t="n">
+      <c r="B391" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C391" t="inlineStr"/>
@@ -15288,7 +15289,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B392" s="3" t="n">
+      <c r="B392" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C392" t="inlineStr"/>
@@ -15324,7 +15325,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B393" s="3" t="n">
+      <c r="B393" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C393" t="inlineStr"/>
@@ -15360,7 +15361,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B394" s="3" t="n">
+      <c r="B394" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C394" t="inlineStr"/>
@@ -15396,7 +15397,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B395" s="3" t="n">
+      <c r="B395" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C395" t="inlineStr">
@@ -15436,7 +15437,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B396" s="3" t="n">
+      <c r="B396" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C396" t="inlineStr">
@@ -15476,7 +15477,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B397" s="3" t="n">
+      <c r="B397" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C397" t="inlineStr">
@@ -15536,7 +15537,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B398" s="3" t="n">
+      <c r="B398" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C398" t="inlineStr"/>
@@ -15572,7 +15573,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B399" s="3" t="n">
+      <c r="B399" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C399" t="inlineStr"/>
@@ -15608,7 +15609,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B400" s="3" t="n">
+      <c r="B400" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C400" t="inlineStr"/>
@@ -15644,7 +15645,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B401" s="3" t="n">
+      <c r="B401" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C401" t="inlineStr"/>
@@ -15680,7 +15681,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B402" s="3" t="n">
+      <c r="B402" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C402" t="inlineStr"/>
@@ -15716,7 +15717,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B403" s="3" t="n">
+      <c r="B403" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C403" t="inlineStr"/>
@@ -15752,7 +15753,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B404" s="3" t="n">
+      <c r="B404" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C404" t="inlineStr"/>
@@ -15788,7 +15789,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B405" s="3" t="n">
+      <c r="B405" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C405" t="inlineStr"/>
@@ -15824,7 +15825,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B406" s="3" t="n">
+      <c r="B406" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C406" t="inlineStr"/>
@@ -15860,7 +15861,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B407" s="3" t="n">
+      <c r="B407" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C407" t="inlineStr"/>
@@ -15896,7 +15897,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B408" s="3" t="n">
+      <c r="B408" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C408" t="inlineStr"/>
@@ -15934,7 +15935,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B409" s="3" t="n">
+      <c r="B409" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C409" t="inlineStr"/>
@@ -15970,7 +15971,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B410" s="3" t="n">
+      <c r="B410" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C410" t="inlineStr"/>
@@ -16006,7 +16007,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B411" s="3" t="n">
+      <c r="B411" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C411" t="inlineStr"/>
@@ -16042,7 +16043,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B412" s="3" t="n">
+      <c r="B412" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C412" t="inlineStr"/>
@@ -16078,7 +16079,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B413" s="3" t="n">
+      <c r="B413" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C413" t="inlineStr">
@@ -16118,7 +16119,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B414" s="3" t="n">
+      <c r="B414" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C414" t="inlineStr">
@@ -16158,7 +16159,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B415" s="3" t="n">
+      <c r="B415" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C415" t="inlineStr">
@@ -16218,7 +16219,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B416" s="3" t="n">
+      <c r="B416" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C416" t="inlineStr"/>
@@ -16254,7 +16255,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B417" s="3" t="n">
+      <c r="B417" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C417" t="inlineStr"/>
@@ -16290,7 +16291,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B418" s="3" t="n">
+      <c r="B418" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C418" t="inlineStr"/>
@@ -16326,7 +16327,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B419" s="3" t="n">
+      <c r="B419" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C419" t="inlineStr"/>
@@ -16362,7 +16363,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B420" s="3" t="n">
+      <c r="B420" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C420" t="inlineStr"/>
@@ -16398,7 +16399,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B421" s="3" t="n">
+      <c r="B421" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C421" t="inlineStr"/>
@@ -16434,7 +16435,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B422" s="3" t="n">
+      <c r="B422" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C422" t="inlineStr"/>
@@ -16470,7 +16471,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B423" s="3" t="n">
+      <c r="B423" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C423" t="inlineStr"/>
@@ -16506,7 +16507,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B424" s="3" t="n">
+      <c r="B424" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C424" t="inlineStr"/>
@@ -16542,7 +16543,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B425" s="3" t="n">
+      <c r="B425" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C425" t="inlineStr"/>
@@ -16578,7 +16579,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B426" s="3" t="n">
+      <c r="B426" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C426" t="inlineStr"/>
@@ -16616,7 +16617,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B427" s="3" t="n">
+      <c r="B427" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C427" t="inlineStr"/>
@@ -16652,7 +16653,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B428" s="3" t="n">
+      <c r="B428" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C428" t="inlineStr"/>
@@ -16688,7 +16689,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B429" s="3" t="n">
+      <c r="B429" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C429" t="inlineStr"/>
@@ -16724,7 +16725,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B430" s="3" t="n">
+      <c r="B430" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C430" t="inlineStr"/>
@@ -16760,7 +16761,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B431" s="3" t="n">
+      <c r="B431" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C431" t="inlineStr">
@@ -16800,7 +16801,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B432" s="3" t="n">
+      <c r="B432" s="4" t="n">
         <v>42752</v>
       </c>
       <c r="C432" t="inlineStr">
@@ -16840,7 +16841,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B433" s="3" t="n">
+      <c r="B433" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C433" t="inlineStr">
@@ -16900,7 +16901,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B434" s="3" t="n">
+      <c r="B434" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C434" t="inlineStr"/>
@@ -16936,7 +16937,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B435" s="3" t="n">
+      <c r="B435" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C435" t="inlineStr"/>
@@ -16972,7 +16973,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B436" s="3" t="n">
+      <c r="B436" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C436" t="inlineStr"/>
@@ -17008,7 +17009,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B437" s="3" t="n">
+      <c r="B437" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C437" t="inlineStr"/>
@@ -17044,7 +17045,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B438" s="3" t="n">
+      <c r="B438" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C438" t="inlineStr"/>
@@ -17080,7 +17081,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B439" s="3" t="n">
+      <c r="B439" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C439" t="inlineStr"/>
@@ -17116,7 +17117,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B440" s="3" t="n">
+      <c r="B440" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C440" t="inlineStr"/>
@@ -17152,7 +17153,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B441" s="3" t="n">
+      <c r="B441" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C441" t="inlineStr"/>
@@ -17188,7 +17189,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B442" s="3" t="n">
+      <c r="B442" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C442" t="inlineStr"/>
@@ -17224,7 +17225,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B443" s="3" t="n">
+      <c r="B443" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C443" t="inlineStr"/>
@@ -17260,7 +17261,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B444" s="3" t="n">
+      <c r="B444" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C444" t="inlineStr"/>
@@ -17298,7 +17299,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B445" s="3" t="n">
+      <c r="B445" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C445" t="inlineStr"/>
@@ -17334,7 +17335,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B446" s="3" t="n">
+      <c r="B446" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C446" t="inlineStr"/>
@@ -17370,7 +17371,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B447" s="3" t="n">
+      <c r="B447" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C447" t="inlineStr"/>
@@ -17406,7 +17407,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B448" s="3" t="n">
+      <c r="B448" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C448" t="inlineStr"/>
@@ -17442,7 +17443,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B449" s="3" t="n">
+      <c r="B449" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C449" t="inlineStr">
@@ -17482,7 +17483,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-025-03</t>
         </is>
       </c>
-      <c r="B450" s="3" t="n">
+      <c r="B450" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C450" t="inlineStr">
@@ -17542,7 +17543,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B451" s="3" t="n">
+      <c r="B451" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C451" t="inlineStr"/>
@@ -17578,7 +17579,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B452" s="3" t="n">
+      <c r="B452" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C452" t="inlineStr"/>
@@ -17614,7 +17615,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B453" s="3" t="n">
+      <c r="B453" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C453" t="inlineStr"/>
@@ -17650,7 +17651,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B454" s="3" t="n">
+      <c r="B454" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C454" t="inlineStr"/>
@@ -17686,7 +17687,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B455" s="3" t="n">
+      <c r="B455" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C455" t="inlineStr"/>
@@ -17722,7 +17723,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B456" s="3" t="n">
+      <c r="B456" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C456" t="inlineStr"/>
@@ -17758,7 +17759,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B457" s="3" t="n">
+      <c r="B457" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C457" t="inlineStr"/>
@@ -17794,7 +17795,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B458" s="3" t="n">
+      <c r="B458" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C458" t="inlineStr"/>
@@ -17830,7 +17831,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B459" s="3" t="n">
+      <c r="B459" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C459" t="inlineStr"/>
@@ -17866,7 +17867,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B460" s="3" t="n">
+      <c r="B460" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C460" t="inlineStr"/>
@@ -17902,7 +17903,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B461" s="3" t="n">
+      <c r="B461" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C461" t="inlineStr"/>
@@ -17940,7 +17941,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B462" s="3" t="n">
+      <c r="B462" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C462" t="inlineStr"/>
@@ -17976,7 +17977,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B463" s="3" t="n">
+      <c r="B463" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C463" t="inlineStr"/>
@@ -18012,7 +18013,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B464" s="3" t="n">
+      <c r="B464" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C464" t="inlineStr"/>
@@ -18048,7 +18049,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B465" s="3" t="n">
+      <c r="B465" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C465" t="inlineStr"/>
@@ -18084,7 +18085,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B466" s="3" t="n">
+      <c r="B466" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C466" t="inlineStr">
@@ -18124,7 +18125,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-039-13</t>
         </is>
       </c>
-      <c r="B467" s="3" t="n">
+      <c r="B467" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C467" t="inlineStr">
@@ -18184,7 +18185,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B468" s="3" t="n">
+      <c r="B468" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C468" t="inlineStr"/>
@@ -18220,7 +18221,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B469" s="3" t="n">
+      <c r="B469" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C469" t="inlineStr"/>
@@ -18256,7 +18257,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B470" s="3" t="n">
+      <c r="B470" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C470" t="inlineStr"/>
@@ -18292,7 +18293,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B471" s="3" t="n">
+      <c r="B471" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C471" t="inlineStr"/>
@@ -18328,7 +18329,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B472" s="3" t="n">
+      <c r="B472" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C472" t="inlineStr"/>
@@ -18364,7 +18365,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B473" s="3" t="n">
+      <c r="B473" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C473" t="inlineStr"/>
@@ -18400,7 +18401,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B474" s="3" t="n">
+      <c r="B474" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C474" t="inlineStr"/>
@@ -18436,7 +18437,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B475" s="3" t="n">
+      <c r="B475" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C475" t="inlineStr"/>
@@ -18472,7 +18473,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B476" s="3" t="n">
+      <c r="B476" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C476" t="inlineStr"/>
@@ -18508,7 +18509,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B477" s="3" t="n">
+      <c r="B477" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C477" t="inlineStr"/>
@@ -18544,7 +18545,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B478" s="3" t="n">
+      <c r="B478" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C478" t="inlineStr"/>
@@ -18582,7 +18583,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B479" s="3" t="n">
+      <c r="B479" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C479" t="inlineStr"/>
@@ -18618,7 +18619,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B480" s="3" t="n">
+      <c r="B480" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C480" t="inlineStr"/>
@@ -18654,7 +18655,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B481" s="3" t="n">
+      <c r="B481" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C481" t="inlineStr"/>
@@ -18690,7 +18691,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B482" s="3" t="n">
+      <c r="B482" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C482" t="inlineStr"/>
@@ -18726,7 +18727,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B483" s="3" t="n">
+      <c r="B483" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C483" t="inlineStr">
@@ -18766,7 +18767,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B484" s="3" t="n">
+      <c r="B484" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C484" t="inlineStr">
@@ -18826,7 +18827,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B485" s="3" t="n">
+      <c r="B485" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C485" t="inlineStr"/>
@@ -18862,7 +18863,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B486" s="3" t="n">
+      <c r="B486" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C486" t="inlineStr"/>
@@ -18898,7 +18899,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B487" s="3" t="n">
+      <c r="B487" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C487" t="inlineStr"/>
@@ -18934,7 +18935,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B488" s="3" t="n">
+      <c r="B488" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C488" t="inlineStr"/>
@@ -18970,7 +18971,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B489" s="3" t="n">
+      <c r="B489" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C489" t="inlineStr"/>
@@ -19006,7 +19007,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B490" s="3" t="n">
+      <c r="B490" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C490" t="inlineStr"/>
@@ -19042,7 +19043,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B491" s="3" t="n">
+      <c r="B491" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C491" t="inlineStr"/>
@@ -19078,7 +19079,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B492" s="3" t="n">
+      <c r="B492" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C492" t="inlineStr"/>
@@ -19114,7 +19115,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B493" s="3" t="n">
+      <c r="B493" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C493" t="inlineStr"/>
@@ -19150,7 +19151,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B494" s="3" t="n">
+      <c r="B494" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C494" t="inlineStr"/>
@@ -19186,7 +19187,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B495" s="3" t="n">
+      <c r="B495" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C495" t="inlineStr"/>
@@ -19224,7 +19225,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B496" s="3" t="n">
+      <c r="B496" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C496" t="inlineStr"/>
@@ -19260,7 +19261,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B497" s="3" t="n">
+      <c r="B497" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C497" t="inlineStr"/>
@@ -19296,7 +19297,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B498" s="3" t="n">
+      <c r="B498" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C498" t="inlineStr"/>
@@ -19332,7 +19333,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B499" s="3" t="n">
+      <c r="B499" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C499" t="inlineStr"/>
@@ -19368,7 +19369,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B500" s="3" t="n">
+      <c r="B500" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C500" t="inlineStr">
@@ -19408,7 +19409,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvLPB11-0140</t>
         </is>
       </c>
-      <c r="B501" s="3" t="n">
+      <c r="B501" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C501" t="inlineStr">
@@ -19468,7 +19469,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B502" s="3" t="n">
+      <c r="B502" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C502" t="inlineStr"/>
@@ -19504,7 +19505,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B503" s="3" t="n">
+      <c r="B503" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C503" t="inlineStr"/>
@@ -19540,7 +19541,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B504" s="3" t="n">
+      <c r="B504" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C504" t="inlineStr"/>
@@ -19576,7 +19577,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B505" s="3" t="n">
+      <c r="B505" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C505" t="inlineStr"/>
@@ -19612,7 +19613,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B506" s="3" t="n">
+      <c r="B506" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C506" t="inlineStr"/>
@@ -19648,7 +19649,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B507" s="3" t="n">
+      <c r="B507" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C507" t="inlineStr"/>
@@ -19684,7 +19685,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B508" s="3" t="n">
+      <c r="B508" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C508" t="inlineStr"/>
@@ -19720,7 +19721,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B509" s="3" t="n">
+      <c r="B509" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C509" t="inlineStr"/>
@@ -19756,7 +19757,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B510" s="3" t="n">
+      <c r="B510" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C510" t="inlineStr"/>
@@ -19792,7 +19793,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B511" s="3" t="n">
+      <c r="B511" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C511" t="inlineStr"/>
@@ -19828,7 +19829,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B512" s="3" t="n">
+      <c r="B512" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C512" t="inlineStr"/>
@@ -19866,7 +19867,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B513" s="3" t="n">
+      <c r="B513" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C513" t="inlineStr"/>
@@ -19902,7 +19903,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B514" s="3" t="n">
+      <c r="B514" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C514" t="inlineStr"/>
@@ -19938,7 +19939,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B515" s="3" t="n">
+      <c r="B515" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C515" t="inlineStr"/>
@@ -19974,7 +19975,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B516" s="3" t="n">
+      <c r="B516" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C516" t="inlineStr"/>
@@ -20010,7 +20011,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B517" s="3" t="n">
+      <c r="B517" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C517" t="inlineStr">
@@ -20050,7 +20051,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B518" s="3" t="n">
+      <c r="B518" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C518" t="inlineStr">
@@ -20110,7 +20111,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B519" s="3" t="n">
+      <c r="B519" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C519" t="inlineStr"/>
@@ -20146,7 +20147,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B520" s="3" t="n">
+      <c r="B520" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C520" t="inlineStr"/>
@@ -20182,7 +20183,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B521" s="3" t="n">
+      <c r="B521" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C521" t="inlineStr"/>
@@ -20218,7 +20219,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B522" s="3" t="n">
+      <c r="B522" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C522" t="inlineStr"/>
@@ -20254,7 +20255,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B523" s="3" t="n">
+      <c r="B523" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C523" t="inlineStr"/>
@@ -20290,7 +20291,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B524" s="3" t="n">
+      <c r="B524" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C524" t="inlineStr"/>
@@ -20326,7 +20327,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B525" s="3" t="n">
+      <c r="B525" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C525" t="inlineStr"/>
@@ -20362,7 +20363,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B526" s="3" t="n">
+      <c r="B526" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C526" t="inlineStr"/>
@@ -20398,7 +20399,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B527" s="3" t="n">
+      <c r="B527" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C527" t="inlineStr"/>
@@ -20434,7 +20435,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B528" s="3" t="n">
+      <c r="B528" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C528" t="inlineStr"/>
@@ -20470,7 +20471,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B529" s="3" t="n">
+      <c r="B529" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C529" t="inlineStr"/>
@@ -20508,7 +20509,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B530" s="3" t="n">
+      <c r="B530" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C530" t="inlineStr"/>
@@ -20544,7 +20545,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B531" s="3" t="n">
+      <c r="B531" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C531" t="inlineStr"/>
@@ -20580,7 +20581,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B532" s="3" t="n">
+      <c r="B532" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C532" t="inlineStr"/>
@@ -20616,7 +20617,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B533" s="3" t="n">
+      <c r="B533" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C533" t="inlineStr"/>
@@ -20652,7 +20653,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B534" s="3" t="n">
+      <c r="B534" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C534" t="inlineStr">
@@ -20692,7 +20693,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10006-026</t>
         </is>
       </c>
-      <c r="B535" s="3" t="n">
+      <c r="B535" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C535" t="inlineStr">
@@ -20752,7 +20753,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B536" s="3" t="n">
+      <c r="B536" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C536" t="inlineStr"/>
@@ -20788,7 +20789,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B537" s="3" t="n">
+      <c r="B537" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C537" t="inlineStr"/>
@@ -20824,7 +20825,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B538" s="3" t="n">
+      <c r="B538" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C538" t="inlineStr"/>
@@ -20860,7 +20861,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B539" s="3" t="n">
+      <c r="B539" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C539" t="inlineStr"/>
@@ -20896,7 +20897,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B540" s="3" t="n">
+      <c r="B540" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C540" t="inlineStr"/>
@@ -20932,7 +20933,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B541" s="3" t="n">
+      <c r="B541" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C541" t="inlineStr"/>
@@ -20968,7 +20969,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B542" s="3" t="n">
+      <c r="B542" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C542" t="inlineStr"/>
@@ -21004,7 +21005,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B543" s="3" t="n">
+      <c r="B543" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C543" t="inlineStr"/>
@@ -21040,7 +21041,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B544" s="3" t="n">
+      <c r="B544" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C544" t="inlineStr"/>
@@ -21076,7 +21077,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B545" s="3" t="n">
+      <c r="B545" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C545" t="inlineStr"/>
@@ -21112,7 +21113,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B546" s="3" t="n">
+      <c r="B546" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C546" t="inlineStr"/>
@@ -21150,7 +21151,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B547" s="3" t="n">
+      <c r="B547" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C547" t="inlineStr"/>
@@ -21186,7 +21187,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B548" s="3" t="n">
+      <c r="B548" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C548" t="inlineStr"/>
@@ -21222,7 +21223,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B549" s="3" t="n">
+      <c r="B549" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C549" t="inlineStr"/>
@@ -21258,7 +21259,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B550" s="3" t="n">
+      <c r="B550" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C550" t="inlineStr"/>
@@ -21294,7 +21295,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B551" s="3" t="n">
+      <c r="B551" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C551" t="inlineStr">
@@ -21334,7 +21335,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV08126-64</t>
         </is>
       </c>
-      <c r="B552" s="3" t="n">
+      <c r="B552" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C552" t="inlineStr">
@@ -21394,7 +21395,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B553" s="3" t="n">
+      <c r="B553" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C553" t="inlineStr"/>
@@ -21430,7 +21431,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B554" s="3" t="n">
+      <c r="B554" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C554" t="inlineStr"/>
@@ -21466,7 +21467,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B555" s="3" t="n">
+      <c r="B555" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C555" t="inlineStr"/>
@@ -21502,7 +21503,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B556" s="3" t="n">
+      <c r="B556" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C556" t="inlineStr"/>
@@ -21538,7 +21539,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B557" s="3" t="n">
+      <c r="B557" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C557" t="inlineStr"/>
@@ -21574,7 +21575,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B558" s="3" t="n">
+      <c r="B558" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C558" t="inlineStr"/>
@@ -21610,7 +21611,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B559" s="3" t="n">
+      <c r="B559" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C559" t="inlineStr"/>
@@ -21646,7 +21647,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B560" s="3" t="n">
+      <c r="B560" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C560" t="inlineStr"/>
@@ -21682,7 +21683,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B561" s="3" t="n">
+      <c r="B561" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C561" t="inlineStr"/>
@@ -21718,7 +21719,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B562" s="3" t="n">
+      <c r="B562" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C562" t="inlineStr"/>
@@ -21754,7 +21755,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B563" s="3" t="n">
+      <c r="B563" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C563" t="inlineStr"/>
@@ -21792,7 +21793,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B564" s="3" t="n">
+      <c r="B564" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C564" t="inlineStr"/>
@@ -21828,7 +21829,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B565" s="3" t="n">
+      <c r="B565" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C565" t="inlineStr"/>
@@ -21864,7 +21865,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B566" s="3" t="n">
+      <c r="B566" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C566" t="inlineStr"/>
@@ -21900,7 +21901,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B567" s="3" t="n">
+      <c r="B567" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C567" t="inlineStr"/>
@@ -21936,7 +21937,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B568" s="3" t="n">
+      <c r="B568" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C568" t="inlineStr">
@@ -21976,7 +21977,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvV10083-050</t>
         </is>
       </c>
-      <c r="B569" s="3" t="n">
+      <c r="B569" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C569" t="inlineStr">
@@ -22036,7 +22037,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B570" s="3" t="n">
+      <c r="B570" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C570" t="inlineStr"/>
@@ -22072,7 +22073,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B571" s="3" t="n">
+      <c r="B571" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C571" t="inlineStr"/>
@@ -22108,7 +22109,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B572" s="3" t="n">
+      <c r="B572" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C572" t="inlineStr"/>
@@ -22144,7 +22145,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B573" s="3" t="n">
+      <c r="B573" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C573" t="inlineStr"/>
@@ -22180,7 +22181,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B574" s="3" t="n">
+      <c r="B574" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C574" t="inlineStr"/>
@@ -22216,7 +22217,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B575" s="3" t="n">
+      <c r="B575" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C575" t="inlineStr"/>
@@ -22252,7 +22253,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B576" s="3" t="n">
+      <c r="B576" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C576" t="inlineStr"/>
@@ -22288,7 +22289,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B577" s="3" t="n">
+      <c r="B577" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C577" t="inlineStr"/>
@@ -22324,7 +22325,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B578" s="3" t="n">
+      <c r="B578" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C578" t="inlineStr"/>
@@ -22360,7 +22361,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B579" s="3" t="n">
+      <c r="B579" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C579" t="inlineStr"/>
@@ -22396,7 +22397,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B580" s="3" t="n">
+      <c r="B580" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C580" t="inlineStr"/>
@@ -22434,7 +22435,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B581" s="3" t="n">
+      <c r="B581" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C581" t="inlineStr"/>
@@ -22470,7 +22471,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B582" s="3" t="n">
+      <c r="B582" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C582" t="inlineStr"/>
@@ -22506,7 +22507,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B583" s="3" t="n">
+      <c r="B583" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C583" t="inlineStr"/>
@@ -22542,7 +22543,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B584" s="3" t="n">
+      <c r="B584" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C584" t="inlineStr"/>
@@ -22578,7 +22579,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B585" s="3" t="n">
+      <c r="B585" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C585" t="inlineStr">
@@ -22618,7 +22619,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS3250.30</t>
         </is>
       </c>
-      <c r="B586" s="3" t="n">
+      <c r="B586" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C586" t="inlineStr">
@@ -22678,7 +22679,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B587" s="3" t="n">
+      <c r="B587" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C587" t="inlineStr"/>
@@ -22714,7 +22715,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B588" s="3" t="n">
+      <c r="B588" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C588" t="inlineStr"/>
@@ -22750,7 +22751,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B589" s="3" t="n">
+      <c r="B589" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C589" t="inlineStr"/>
@@ -22786,7 +22787,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B590" s="3" t="n">
+      <c r="B590" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C590" t="inlineStr"/>
@@ -22822,7 +22823,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B591" s="3" t="n">
+      <c r="B591" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C591" t="inlineStr"/>
@@ -22858,7 +22859,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B592" s="3" t="n">
+      <c r="B592" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C592" t="inlineStr"/>
@@ -22894,7 +22895,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B593" s="3" t="n">
+      <c r="B593" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C593" t="inlineStr"/>
@@ -22930,7 +22931,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B594" s="3" t="n">
+      <c r="B594" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C594" t="inlineStr"/>
@@ -22966,7 +22967,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B595" s="3" t="n">
+      <c r="B595" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C595" t="inlineStr"/>
@@ -23002,7 +23003,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B596" s="3" t="n">
+      <c r="B596" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C596" t="inlineStr"/>
@@ -23038,7 +23039,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B597" s="3" t="n">
+      <c r="B597" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C597" t="inlineStr"/>
@@ -23076,7 +23077,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B598" s="3" t="n">
+      <c r="B598" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C598" t="inlineStr"/>
@@ -23112,7 +23113,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B599" s="3" t="n">
+      <c r="B599" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C599" t="inlineStr"/>
@@ -23148,7 +23149,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B600" s="3" t="n">
+      <c r="B600" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C600" t="inlineStr"/>
@@ -23184,7 +23185,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B601" s="3" t="n">
+      <c r="B601" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C601" t="inlineStr"/>
@@ -23220,7 +23221,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B602" s="3" t="n">
+      <c r="B602" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C602" t="inlineStr">
@@ -23260,7 +23261,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCS98152.79</t>
         </is>
       </c>
-      <c r="B603" s="3" t="n">
+      <c r="B603" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C603" t="inlineStr">
@@ -23320,7 +23321,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B604" s="3" t="n">
+      <c r="B604" s="4" t="n">
         <v>42509</v>
       </c>
       <c r="C604" t="inlineStr"/>
@@ -23356,7 +23357,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B605" s="3" t="n">
+      <c r="B605" s="4" t="n">
         <v>42510</v>
       </c>
       <c r="C605" t="inlineStr"/>
@@ -23392,7 +23393,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B606" s="3" t="n">
+      <c r="B606" s="4" t="n">
         <v>42530</v>
       </c>
       <c r="C606" t="inlineStr"/>
@@ -23428,7 +23429,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B607" s="3" t="n">
+      <c r="B607" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="C607" t="inlineStr"/>
@@ -23464,7 +23465,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B608" s="3" t="n">
+      <c r="B608" s="4" t="n">
         <v>42570</v>
       </c>
       <c r="C608" t="inlineStr"/>
@@ -23500,7 +23501,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B609" s="3" t="n">
+      <c r="B609" s="4" t="n">
         <v>42590</v>
       </c>
       <c r="C609" t="inlineStr"/>
@@ -23536,7 +23537,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B610" s="3" t="n">
+      <c r="B610" s="4" t="n">
         <v>42605</v>
       </c>
       <c r="C610" t="inlineStr"/>
@@ -23572,7 +23573,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B611" s="3" t="n">
+      <c r="B611" s="4" t="n">
         <v>42607</v>
       </c>
       <c r="C611" t="inlineStr"/>
@@ -23608,7 +23609,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B612" s="3" t="n">
+      <c r="B612" s="4" t="n">
         <v>42621</v>
       </c>
       <c r="C612" t="inlineStr"/>
@@ -23644,7 +23645,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B613" s="3" t="n">
+      <c r="B613" s="4" t="n">
         <v>42641</v>
       </c>
       <c r="C613" t="inlineStr"/>
@@ -23680,7 +23681,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B614" s="3" t="n">
+      <c r="B614" s="4" t="n">
         <v>42654</v>
       </c>
       <c r="C614" t="inlineStr"/>
@@ -23718,7 +23719,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B615" s="3" t="n">
+      <c r="B615" s="4" t="n">
         <v>42668</v>
       </c>
       <c r="C615" t="inlineStr"/>
@@ -23754,7 +23755,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B616" s="3" t="n">
+      <c r="B616" s="4" t="n">
         <v>42684</v>
       </c>
       <c r="C616" t="inlineStr"/>
@@ -23790,7 +23791,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B617" s="3" t="n">
+      <c r="B617" s="4" t="n">
         <v>42698</v>
       </c>
       <c r="C617" t="inlineStr"/>
@@ -23826,7 +23827,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B618" s="3" t="n">
+      <c r="B618" s="4" t="n">
         <v>42713</v>
       </c>
       <c r="C618" t="inlineStr"/>
@@ -23862,7 +23863,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B619" s="3" t="n">
+      <c r="B619" s="4" t="n">
         <v>42739</v>
       </c>
       <c r="C619" t="inlineStr">
@@ -23902,7 +23903,7 @@
           <t>FAR TAS W16-01-2MgmtHigh InputCvCSQ496.88</t>
         </is>
       </c>
-      <c r="B620" s="3" t="n">
+      <c r="B620" s="4" t="n">
         <v>42758</v>
       </c>
       <c r="C620" t="inlineStr">
